--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>839907.2270643148</v>
+        <v>835954.9026906199</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5285139.806917975</v>
+        <v>5285139.806917974</v>
       </c>
     </row>
     <row r="11">
@@ -673,7 +673,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>0.2956717864458521</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930213</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -746,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="T3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>24.76484596498756</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362102</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>0.2956717864458521</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>24.76484596498758</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>28.11631013281968</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="D7" t="n">
-        <v>24.76484596498756</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>28.11631013281968</v>
+        <v>24.76484596498758</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>24.76484596498756</v>
+        <v>24.76484596498758</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="G9" t="n">
         <v>28.11631013281968</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,40 +1305,40 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="H10" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="I10" t="n">
-        <v>24.76484596498756</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1375,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>398.3261871114271</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.44398915360154</v>
       </c>
       <c r="T11" t="n">
-        <v>188.2223651400622</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>65.47743256575161</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7109569854282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>67.62832697147566</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>153.0376945003153</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>86.7611407952776</v>
       </c>
       <c r="U13" t="n">
         <v>277.3344162134288</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3261871114271</v>
       </c>
       <c r="H14" t="n">
-        <v>225.4909247706293</v>
+        <v>274.7197098126699</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.44398915360155</v>
       </c>
       <c r="T14" t="n">
         <v>210.0948960809187</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>274.4422310916827</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>53.23915973266047</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>163.7109569854282</v>
@@ -1785,7 +1785,7 @@
         <v>134.5036941999293</v>
       </c>
       <c r="I16" t="n">
-        <v>72.20334147697446</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>237.1312431968815</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3344162134288</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>6.302519732471814</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>113.51992221574</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.7197098126699</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.44398915360156</v>
       </c>
       <c r="T17" t="n">
-        <v>74.68945808831674</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2007,19 +2007,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>29.84750304327838</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.5036941999293</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.84541633285658</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>153.0376945003153</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1312431968815</v>
+        <v>187.1069841926643</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3344162134288</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>309.8243169980096</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2092,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.44398915360156</v>
       </c>
       <c r="T20" t="n">
-        <v>132.9064878028424</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6138015355503</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7109569854282</v>
       </c>
       <c r="H22" t="n">
         <v>134.5036941999293</v>
       </c>
       <c r="I22" t="n">
-        <v>29.8475030432788</v>
+        <v>72.20334147697446</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.84541633285658</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>153.0376945003153</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1312431968815</v>
+        <v>111.1299295332486</v>
       </c>
       <c r="U22" t="n">
         <v>277.3344162134288</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>210.0948960809187</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6138015355503</v>
+        <v>138.7995330931985</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.4262898779371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.845416332856587</v>
+        <v>6.84541633285658</v>
       </c>
       <c r="S25" t="n">
         <v>153.0376945003153</v>
@@ -2557,22 +2557,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>392.2363112183098</v>
       </c>
       <c r="F26" t="n">
-        <v>207.304578419204</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3261871114271</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.7197098126699</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>58.44398915360156</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.0948960809187</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6138015355503</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -2620,10 +2620,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.845416332856587</v>
+        <v>6.84541633285658</v>
       </c>
       <c r="S28" t="n">
         <v>153.0376945003153</v>
@@ -2794,10 +2794,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.44398915360156</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>37.06124128670186</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>62.70050933520937</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.845416332856587</v>
+        <v>6.84541633285658</v>
       </c>
       <c r="S31" t="n">
         <v>153.0376945003153</v>
@@ -3031,22 +3031,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3261871114271</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>131.0027431609081</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.44398915360156</v>
       </c>
       <c r="T32" t="n">
-        <v>104.0614571958452</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6138015355503</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.845416332856587</v>
+        <v>6.84541633285658</v>
       </c>
       <c r="S34" t="n">
         <v>153.0376945003153</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>225.5591811957115</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6138015355503</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>312.4030046222547</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>157.6154619170393</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>135.9437026362392</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.20334147697446</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.845416332856587</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>153.0376945003153</v>
       </c>
       <c r="T37" t="n">
         <v>237.1312431968815</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>336.4565754022028</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>222.6014709624801</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.7197098126699</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.44398915360156</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7109569854282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.845416332856587</v>
+        <v>6.84541633285658</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.0376945003153</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>23.8061836862747</v>
       </c>
       <c r="U40" t="n">
         <v>277.3344162134288</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>227.8826599470509</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3261871114271</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.7197098126699</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>58.44398915360156</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0948960809187</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>255.6138015355503</v>
       </c>
       <c r="V41" t="n">
-        <v>276.445455136954</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>319.1041893504895</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>92.72082560420559</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.84541633285658</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>153.0376945003153</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1312431968815</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3344162134288</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>246.1517221128808</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>267.4603890534642</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3261871114271</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>274.7197098126699</v>
@@ -4030,19 +4030,19 @@
         <v>58.44398915360156</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0948960809187</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6138015355503</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>294.7986537750841</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4143,19 +4143,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>57.22518429314567</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>130.8586453735701</v>
       </c>
       <c r="H46" t="n">
         <v>134.5036941999293</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.20334147697446</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>87.68081948359846</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>64.82049353730264</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270698</v>
+        <v>45.56827676270699</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>23.6317409509686</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772885</v>
+        <v>2.5479631807729</v>
       </c>
       <c r="G2" t="n">
         <v>2.249304810625575</v>
@@ -4330,25 +4330,25 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J2" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="K2" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="L2" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="M2" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="N2" t="n">
-        <v>57.91959887360855</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="O2" t="n">
-        <v>57.91959887360855</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="P2" t="n">
-        <v>57.91959887360855</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="Q2" t="n">
         <v>84.63009349978725</v>
@@ -4372,7 +4372,7 @@
         <v>112.4652405312787</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>104.7856457394301</v>
       </c>
       <c r="Y2" t="n">
         <v>103.4887797347244</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="C3" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="D3" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="E3" t="n">
-        <v>2.249304810625575</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="F3" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="G3" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="H3" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="I3" t="n">
-        <v>2.249304810625575</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="J3" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="K3" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="L3" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="M3" t="n">
-        <v>2.249304810625575</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="N3" t="n">
-        <v>2.249304810625575</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="O3" t="n">
-        <v>30.08445184211706</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="P3" t="n">
-        <v>56.79494646829576</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="R3" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T3" t="n">
         <v>84.0649272658043</v>
       </c>
       <c r="U3" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="V3" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="W3" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="X3" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.6496180761</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="C4" t="n">
-        <v>30.6496180761</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="D4" t="n">
-        <v>30.6496180761</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="E4" t="n">
         <v>30.6496180761</v>
@@ -4479,10 +4479,10 @@
         <v>30.6496180761</v>
       </c>
       <c r="G4" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="H4" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="I4" t="n">
         <v>2.249304810625575</v>
@@ -4497,13 +4497,13 @@
         <v>57.91959887360855</v>
       </c>
       <c r="M4" t="n">
-        <v>57.91959887360855</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="N4" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="O4" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="P4" t="n">
         <v>112.4652405312787</v>
@@ -4512,28 +4512,28 @@
         <v>112.4652405312787</v>
       </c>
       <c r="R4" t="n">
+        <v>112.4652405312787</v>
+      </c>
+      <c r="S4" t="n">
         <v>84.0649272658043</v>
       </c>
-      <c r="S4" t="n">
-        <v>55.66461400032987</v>
-      </c>
       <c r="T4" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U4" t="n">
-        <v>30.6496180761</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="V4" t="n">
-        <v>30.6496180761</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="W4" t="n">
-        <v>30.6496180761</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="X4" t="n">
-        <v>30.6496180761</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="Y4" t="n">
-        <v>30.6496180761</v>
+        <v>59.04993134157444</v>
       </c>
     </row>
     <row r="5">
@@ -4552,10 +4552,10 @@
         <v>45.56827676270699</v>
       </c>
       <c r="E5" t="n">
-        <v>23.63174095096858</v>
+        <v>23.6317409509686</v>
       </c>
       <c r="F5" t="n">
-        <v>2.547963180772885</v>
+        <v>2.5479631807729</v>
       </c>
       <c r="G5" t="n">
         <v>2.249304810625575</v>
@@ -4567,28 +4567,28 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J5" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="K5" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="L5" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="M5" t="n">
-        <v>57.91959887360855</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="N5" t="n">
-        <v>85.75474590510004</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="O5" t="n">
-        <v>85.75474590510004</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="P5" t="n">
-        <v>85.75474590510004</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Q5" t="n">
-        <v>85.75474590510004</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="R5" t="n">
         <v>112.4652405312787</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="C6" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="D6" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="E6" t="n">
-        <v>87.45024460704886</v>
+        <v>30.6496180761</v>
       </c>
       <c r="F6" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="G6" t="n">
         <v>30.6496180761</v>
@@ -4646,52 +4646,52 @@
         <v>9.695947772537416</v>
       </c>
       <c r="J6" t="n">
-        <v>9.695947772537416</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="K6" t="n">
-        <v>9.695947772537416</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="L6" t="n">
-        <v>9.695947772537416</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="M6" t="n">
-        <v>37.5310948040289</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="N6" t="n">
-        <v>37.5310948040289</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="O6" t="n">
-        <v>37.5310948040289</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="P6" t="n">
-        <v>65.36624183552038</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q6" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="R6" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="S6" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T6" t="n">
-        <v>112.4652405312787</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="U6" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="V6" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="W6" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="X6" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="Y6" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.26430073485544</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="C7" t="n">
-        <v>27.26430073485544</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="D7" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="E7" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="F7" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="G7" t="n">
         <v>2.249304810625575</v>
@@ -4728,16 +4728,16 @@
         <v>30.08445184211706</v>
       </c>
       <c r="K7" t="n">
-        <v>30.08445184211706</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="L7" t="n">
-        <v>30.08445184211706</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="M7" t="n">
-        <v>56.79494646829576</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="N7" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="O7" t="n">
         <v>112.4652405312787</v>
@@ -4749,28 +4749,28 @@
         <v>112.4652405312787</v>
       </c>
       <c r="R7" t="n">
-        <v>84.0649272658043</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="S7" t="n">
-        <v>84.0649272658043</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="T7" t="n">
-        <v>84.0649272658043</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="U7" t="n">
-        <v>84.0649272658043</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="V7" t="n">
-        <v>84.0649272658043</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="W7" t="n">
-        <v>84.0649272658043</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="X7" t="n">
-        <v>55.66461400032987</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.26430073485544</v>
+        <v>87.45024460704886</v>
       </c>
     </row>
     <row r="8">
@@ -4804,22 +4804,22 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J8" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="O8" t="n">
         <v>28.95979943680427</v>
-      </c>
-      <c r="K8" t="n">
-        <v>28.95979943680427</v>
-      </c>
-      <c r="L8" t="n">
-        <v>28.95979943680427</v>
-      </c>
-      <c r="M8" t="n">
-        <v>56.79494646829576</v>
-      </c>
-      <c r="N8" t="n">
-        <v>56.79494646829576</v>
-      </c>
-      <c r="O8" t="n">
-        <v>56.79494646829576</v>
       </c>
       <c r="P8" t="n">
         <v>56.79494646829576</v>
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="C9" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="D9" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="E9" t="n">
-        <v>59.04993134157444</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="F9" t="n">
         <v>59.04993134157444</v>
@@ -4883,25 +4883,25 @@
         <v>9.695947772537416</v>
       </c>
       <c r="J9" t="n">
-        <v>9.695947772537416</v>
+        <v>37.5310948040289</v>
       </c>
       <c r="K9" t="n">
-        <v>9.695947772537416</v>
+        <v>37.5310948040289</v>
       </c>
       <c r="L9" t="n">
-        <v>37.5310948040289</v>
+        <v>65.36624183552038</v>
       </c>
       <c r="M9" t="n">
         <v>65.36624183552038</v>
       </c>
       <c r="N9" t="n">
-        <v>93.20138886701187</v>
+        <v>65.36624183552038</v>
       </c>
       <c r="O9" t="n">
-        <v>112.4652405312787</v>
+        <v>65.36624183552038</v>
       </c>
       <c r="P9" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q9" t="n">
         <v>112.4652405312787</v>
@@ -4910,25 +4910,25 @@
         <v>112.4652405312787</v>
       </c>
       <c r="S9" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="T9" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="U9" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="V9" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="W9" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="X9" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Y9" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>84.0649272658043</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="C10" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="D10" t="n">
-        <v>84.0649272658043</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="E10" t="n">
-        <v>84.0649272658043</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="F10" t="n">
-        <v>84.0649272658043</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="G10" t="n">
-        <v>55.66461400032987</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="H10" t="n">
-        <v>27.26430073485544</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="I10" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="J10" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="K10" t="n">
-        <v>28.95979943680427</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="L10" t="n">
-        <v>28.95979943680427</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="M10" t="n">
-        <v>56.79494646829576</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="N10" t="n">
-        <v>56.79494646829576</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="O10" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="P10" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Q10" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="R10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="S10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="V10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="W10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="X10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="Y10" t="n">
-        <v>84.0649272658043</v>
+        <v>55.66461400032987</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1148.133171210051</v>
+        <v>1570.573033983509</v>
       </c>
       <c r="C11" t="n">
-        <v>1148.133171210051</v>
+        <v>1570.573033983509</v>
       </c>
       <c r="D11" t="n">
-        <v>1148.133171210051</v>
+        <v>1147.280413168509</v>
       </c>
       <c r="E11" t="n">
-        <v>722.1562313579091</v>
+        <v>1147.280413168509</v>
       </c>
       <c r="F11" t="n">
         <v>722.1562313579091</v>
@@ -5035,10 +5035,10 @@
         <v>319.8065474069725</v>
       </c>
       <c r="H11" t="n">
-        <v>42.3118910305382</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="I11" t="n">
-        <v>83.27873986633753</v>
+        <v>83.27873986633745</v>
       </c>
       <c r="J11" t="n">
         <v>219.6389544126146</v>
@@ -5053,40 +5053,40 @@
         <v>1007.324196722083</v>
       </c>
       <c r="N11" t="n">
-        <v>1318.323243648509</v>
+        <v>1318.32324364851</v>
       </c>
       <c r="O11" t="n">
         <v>1609.823844813728</v>
       </c>
       <c r="P11" t="n">
-        <v>1853.006451163901</v>
+        <v>1853.006451163902</v>
       </c>
       <c r="Q11" t="n">
-        <v>2027.798389622784</v>
+        <v>2027.798389622785</v>
       </c>
       <c r="R11" t="n">
         <v>2115.59455152691</v>
       </c>
       <c r="S11" t="n">
-        <v>2115.59455152691</v>
+        <v>2056.560219048525</v>
       </c>
       <c r="T11" t="n">
-        <v>1925.470950375332</v>
+        <v>2056.560219048525</v>
       </c>
       <c r="U11" t="n">
-        <v>1925.470950375332</v>
+        <v>2056.560219048525</v>
       </c>
       <c r="V11" t="n">
-        <v>1567.981535501581</v>
+        <v>1990.421398275039</v>
       </c>
       <c r="W11" t="n">
-        <v>1567.981535501581</v>
+        <v>1990.421398275039</v>
       </c>
       <c r="X11" t="n">
-        <v>1567.981535501581</v>
+        <v>1990.421398275039</v>
       </c>
       <c r="Y11" t="n">
-        <v>1567.981535501581</v>
+        <v>1990.421398275039</v>
       </c>
     </row>
     <row r="12">
@@ -5102,46 +5102,46 @@
         <v>480.5850948328476</v>
       </c>
       <c r="D12" t="n">
-        <v>376.7451363481326</v>
+        <v>376.7451363481327</v>
       </c>
       <c r="E12" t="n">
-        <v>272.0432026210698</v>
+        <v>272.0432026210699</v>
       </c>
       <c r="F12" t="n">
         <v>178.397372303974</v>
       </c>
       <c r="G12" t="n">
-        <v>85.40801183607857</v>
+        <v>85.40801183607859</v>
       </c>
       <c r="H12" t="n">
-        <v>42.3118910305382</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="I12" t="n">
-        <v>85.67674366497025</v>
+        <v>62.21943782055841</v>
       </c>
       <c r="J12" t="n">
-        <v>163.8340531572323</v>
+        <v>140.3767473128206</v>
       </c>
       <c r="K12" t="n">
-        <v>310.1175028104076</v>
+        <v>286.6601969659959</v>
       </c>
       <c r="L12" t="n">
-        <v>514.341066305755</v>
+        <v>490.8837604613433</v>
       </c>
       <c r="M12" t="n">
-        <v>755.805823379632</v>
+        <v>732.3485175352204</v>
       </c>
       <c r="N12" t="n">
-        <v>1006.002838871254</v>
+        <v>982.5455330268428</v>
       </c>
       <c r="O12" t="n">
-        <v>1231.273511371758</v>
+        <v>1207.816205527346</v>
       </c>
       <c r="P12" t="n">
-        <v>1558.084994264784</v>
+        <v>1663.54049454969</v>
       </c>
       <c r="Q12" t="n">
-        <v>1668.732760665578</v>
+        <v>1774.188260950484</v>
       </c>
       <c r="R12" t="n">
         <v>1815.523812931707</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>619.8222727779748</v>
+        <v>377.6012270248515</v>
       </c>
       <c r="C13" t="n">
-        <v>447.8497096568908</v>
+        <v>205.6286639037675</v>
       </c>
       <c r="D13" t="n">
-        <v>447.8497096568908</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="E13" t="n">
-        <v>447.8497096568908</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="F13" t="n">
-        <v>275.9879354314512</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="G13" t="n">
-        <v>110.6233324158671</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="H13" t="n">
-        <v>110.6233324158671</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="I13" t="n">
-        <v>42.3118910305382</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="J13" t="n">
-        <v>161.6380467832711</v>
+        <v>83.71633013505027</v>
       </c>
       <c r="K13" t="n">
-        <v>489.7792645270004</v>
+        <v>164.5749387647575</v>
       </c>
       <c r="L13" t="n">
-        <v>695.4470533272657</v>
+        <v>649.2947048839583</v>
       </c>
       <c r="M13" t="n">
-        <v>1219.056704830176</v>
+        <v>1172.904356386869</v>
       </c>
       <c r="N13" t="n">
-        <v>1730.38718340436</v>
+        <v>1684.234834961053</v>
       </c>
       <c r="O13" t="n">
-        <v>1831.734936914813</v>
+        <v>1983.108434292712</v>
       </c>
       <c r="P13" t="n">
-        <v>1915.357878099096</v>
+        <v>2066.731375476996</v>
       </c>
       <c r="Q13" t="n">
         <v>2115.59455152691</v>
@@ -5226,25 +5226,25 @@
         <v>2115.59455152691</v>
       </c>
       <c r="S13" t="n">
-        <v>2115.59455152691</v>
+        <v>1961.011021728612</v>
       </c>
       <c r="T13" t="n">
-        <v>2115.59455152691</v>
+        <v>1873.373505773786</v>
       </c>
       <c r="U13" t="n">
-        <v>1835.458777573951</v>
+        <v>1593.237731820828</v>
       </c>
       <c r="V13" t="n">
-        <v>1553.74731018198</v>
+        <v>1311.526264428857</v>
       </c>
       <c r="W13" t="n">
-        <v>1278.894906354493</v>
+        <v>1036.67386060137</v>
       </c>
       <c r="X13" t="n">
-        <v>1036.331009800298</v>
+        <v>794.109964047175</v>
       </c>
       <c r="Y13" t="n">
-        <v>809.9882414900405</v>
+        <v>567.7671957369171</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>270.0805019099618</v>
+        <v>1147.280413168509</v>
       </c>
       <c r="C14" t="n">
-        <v>270.0805019099618</v>
+        <v>1147.280413168509</v>
       </c>
       <c r="D14" t="n">
-        <v>270.0805019099618</v>
+        <v>1147.280413168509</v>
       </c>
       <c r="E14" t="n">
-        <v>270.0805019099618</v>
+        <v>1147.280413168509</v>
       </c>
       <c r="F14" t="n">
-        <v>270.0805019099618</v>
+        <v>722.1562313579091</v>
       </c>
       <c r="G14" t="n">
-        <v>270.0805019099618</v>
+        <v>319.8065474069725</v>
       </c>
       <c r="H14" t="n">
-        <v>42.3118910305382</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="I14" t="n">
         <v>83.27873986633722</v>
       </c>
       <c r="J14" t="n">
-        <v>219.6389544126143</v>
+        <v>219.6389544126141</v>
       </c>
       <c r="K14" t="n">
-        <v>432.2525774933683</v>
+        <v>432.2525774933682</v>
       </c>
       <c r="L14" t="n">
         <v>702.0151138095605</v>
       </c>
       <c r="M14" t="n">
-        <v>1007.324196722082</v>
+        <v>1007.324196722083</v>
       </c>
       <c r="N14" t="n">
         <v>1318.323243648509</v>
       </c>
       <c r="O14" t="n">
-        <v>1609.823844813727</v>
+        <v>1609.823844813728</v>
       </c>
       <c r="P14" t="n">
-        <v>1853.006451163901</v>
+        <v>1853.006451163902</v>
       </c>
       <c r="Q14" t="n">
-        <v>2027.798389622784</v>
+        <v>2027.798389622785</v>
       </c>
       <c r="R14" t="n">
         <v>2115.59455152691</v>
       </c>
       <c r="S14" t="n">
-        <v>2115.59455152691</v>
+        <v>2056.560219048525</v>
       </c>
       <c r="T14" t="n">
-        <v>1903.377484778507</v>
+        <v>1844.343152300122</v>
       </c>
       <c r="U14" t="n">
-        <v>1903.377484778507</v>
+        <v>1844.343152300122</v>
       </c>
       <c r="V14" t="n">
-        <v>1903.377484778507</v>
+        <v>1844.343152300122</v>
       </c>
       <c r="W14" t="n">
-        <v>1506.986135078854</v>
+        <v>1844.343152300122</v>
       </c>
       <c r="X14" t="n">
-        <v>1095.266136246601</v>
+        <v>1567.128777460039</v>
       </c>
       <c r="Y14" t="n">
-        <v>689.9288662014918</v>
+        <v>1567.128777460039</v>
       </c>
     </row>
     <row r="15">
@@ -5339,37 +5339,37 @@
         <v>480.5850948328476</v>
       </c>
       <c r="D15" t="n">
-        <v>376.7451363481326</v>
+        <v>376.7451363481327</v>
       </c>
       <c r="E15" t="n">
-        <v>272.0432026210698</v>
+        <v>272.0432026210699</v>
       </c>
       <c r="F15" t="n">
         <v>178.397372303974</v>
       </c>
       <c r="G15" t="n">
-        <v>85.40801183607857</v>
+        <v>85.40801183607859</v>
       </c>
       <c r="H15" t="n">
-        <v>42.3118910305382</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="I15" t="n">
-        <v>62.2194378205584</v>
+        <v>62.21943782055841</v>
       </c>
       <c r="J15" t="n">
-        <v>140.3767473128205</v>
+        <v>418.4430847047365</v>
       </c>
       <c r="K15" t="n">
-        <v>286.6601969659957</v>
+        <v>564.7265343579118</v>
       </c>
       <c r="L15" t="n">
-        <v>490.8837604613431</v>
+        <v>768.9500978532592</v>
       </c>
       <c r="M15" t="n">
-        <v>732.3485175352201</v>
+        <v>1010.414854927136</v>
       </c>
       <c r="N15" t="n">
-        <v>982.5455330268426</v>
+        <v>1260.611870418759</v>
       </c>
       <c r="O15" t="n">
         <v>1485.882542919262</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>642.2209717223217</v>
+        <v>1016.898127486688</v>
       </c>
       <c r="C16" t="n">
-        <v>470.2484086012377</v>
+        <v>844.9255643656036</v>
       </c>
       <c r="D16" t="n">
-        <v>416.4714795783483</v>
+        <v>681.6087914923743</v>
       </c>
       <c r="E16" t="n">
-        <v>416.4714795783483</v>
+        <v>515.4005856452278</v>
       </c>
       <c r="F16" t="n">
-        <v>416.4714795783483</v>
+        <v>343.5388114197882</v>
       </c>
       <c r="G16" t="n">
-        <v>251.1068765627642</v>
+        <v>178.1742084042042</v>
       </c>
       <c r="H16" t="n">
-        <v>115.2445591890983</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="I16" t="n">
-        <v>42.3118910305382</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="J16" t="n">
-        <v>161.6380467832711</v>
+        <v>83.71633013505027</v>
       </c>
       <c r="K16" t="n">
-        <v>489.7792645270004</v>
+        <v>164.5749387647575</v>
       </c>
       <c r="L16" t="n">
-        <v>598.1101370550361</v>
+        <v>649.2947048839583</v>
       </c>
       <c r="M16" t="n">
-        <v>1121.719788557946</v>
+        <v>992.7278779048723</v>
       </c>
       <c r="N16" t="n">
-        <v>1633.050267132131</v>
+        <v>1504.058356479057</v>
       </c>
       <c r="O16" t="n">
-        <v>1734.398020642583</v>
+        <v>1983.108434292712</v>
       </c>
       <c r="P16" t="n">
-        <v>1915.357878099096</v>
+        <v>2066.731375476996</v>
       </c>
       <c r="Q16" t="n">
         <v>2115.59455152691</v>
@@ -5466,22 +5466,22 @@
         <v>1961.011021728612</v>
       </c>
       <c r="T16" t="n">
-        <v>1721.484513448933</v>
+        <v>1721.484513448934</v>
       </c>
       <c r="U16" t="n">
-        <v>1441.348739495975</v>
+        <v>1721.484513448934</v>
       </c>
       <c r="V16" t="n">
-        <v>1159.637272104004</v>
+        <v>1439.773046056963</v>
       </c>
       <c r="W16" t="n">
-        <v>884.7848682765166</v>
+        <v>1439.773046056963</v>
       </c>
       <c r="X16" t="n">
-        <v>642.2209717223217</v>
+        <v>1433.406864509011</v>
       </c>
       <c r="Y16" t="n">
-        <v>642.2209717223217</v>
+        <v>1207.064096198753</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>469.2126210172381</v>
+        <v>1287.350805342522</v>
       </c>
       <c r="C17" t="n">
-        <v>42.3118910305382</v>
+        <v>860.450075355822</v>
       </c>
       <c r="D17" t="n">
-        <v>42.3118910305382</v>
+        <v>860.450075355822</v>
       </c>
       <c r="E17" t="n">
-        <v>42.3118910305382</v>
+        <v>434.4731355036796</v>
       </c>
       <c r="F17" t="n">
-        <v>42.3118910305382</v>
+        <v>434.4731355036796</v>
       </c>
       <c r="G17" t="n">
-        <v>42.3118910305382</v>
+        <v>319.8065474069725</v>
       </c>
       <c r="H17" t="n">
-        <v>42.3118910305382</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="I17" t="n">
-        <v>83.27873986633753</v>
+        <v>83.27873986633767</v>
       </c>
       <c r="J17" t="n">
-        <v>219.6389544126145</v>
+        <v>219.6389544126148</v>
       </c>
       <c r="K17" t="n">
-        <v>432.2525774933686</v>
+        <v>432.2525774933688</v>
       </c>
       <c r="L17" t="n">
-        <v>702.0151138095607</v>
+        <v>702.0151138095609</v>
       </c>
       <c r="M17" t="n">
         <v>1007.324196722083</v>
@@ -5536,31 +5536,31 @@
         <v>1853.006451163901</v>
       </c>
       <c r="Q17" t="n">
-        <v>2027.798389622784</v>
+        <v>2027.798389622785</v>
       </c>
       <c r="R17" t="n">
         <v>2115.59455152691</v>
       </c>
       <c r="S17" t="n">
-        <v>2115.59455152691</v>
+        <v>2056.560219048525</v>
       </c>
       <c r="T17" t="n">
-        <v>2040.150654468004</v>
+        <v>2056.560219048525</v>
       </c>
       <c r="U17" t="n">
-        <v>2040.150654468004</v>
+        <v>2056.560219048525</v>
       </c>
       <c r="V17" t="n">
-        <v>1682.661239594254</v>
+        <v>1699.070804174775</v>
       </c>
       <c r="W17" t="n">
-        <v>1286.269889894601</v>
+        <v>1699.070804174775</v>
       </c>
       <c r="X17" t="n">
-        <v>874.5498910623478</v>
+        <v>1287.350805342522</v>
       </c>
       <c r="Y17" t="n">
-        <v>469.2126210172381</v>
+        <v>1287.350805342522</v>
       </c>
     </row>
     <row r="18">
@@ -5576,46 +5576,46 @@
         <v>480.5850948328476</v>
       </c>
       <c r="D18" t="n">
-        <v>376.7451363481326</v>
+        <v>376.7451363481327</v>
       </c>
       <c r="E18" t="n">
-        <v>272.0432026210698</v>
+        <v>272.0432026210699</v>
       </c>
       <c r="F18" t="n">
-        <v>178.397372303974</v>
+        <v>178.3973723039741</v>
       </c>
       <c r="G18" t="n">
-        <v>85.40801183607857</v>
+        <v>85.4080118360786</v>
       </c>
       <c r="H18" t="n">
-        <v>42.3118910305382</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="I18" t="n">
-        <v>62.2194378205584</v>
+        <v>85.67674366497025</v>
       </c>
       <c r="J18" t="n">
-        <v>418.4430847047365</v>
+        <v>312.9875844198307</v>
       </c>
       <c r="K18" t="n">
-        <v>564.7265343579118</v>
+        <v>459.271034073006</v>
       </c>
       <c r="L18" t="n">
-        <v>768.9500978532592</v>
+        <v>663.4945975683534</v>
       </c>
       <c r="M18" t="n">
-        <v>1010.414854927136</v>
+        <v>904.9593546422303</v>
       </c>
       <c r="N18" t="n">
-        <v>1260.611870418759</v>
+        <v>1155.156370133853</v>
       </c>
       <c r="O18" t="n">
-        <v>1485.882542919262</v>
+        <v>1380.427042634356</v>
       </c>
       <c r="P18" t="n">
-        <v>1663.54049454969</v>
+        <v>1558.084994264784</v>
       </c>
       <c r="Q18" t="n">
-        <v>1774.188260950484</v>
+        <v>1668.732760665578</v>
       </c>
       <c r="R18" t="n">
         <v>1815.523812931707</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>380.2957644982966</v>
+        <v>549.4630012502911</v>
       </c>
       <c r="C19" t="n">
-        <v>208.3232013772126</v>
+        <v>377.4904381292071</v>
       </c>
       <c r="D19" t="n">
-        <v>208.3232013772126</v>
+        <v>214.1736652559778</v>
       </c>
       <c r="E19" t="n">
-        <v>208.3232013772126</v>
+        <v>214.1736652559778</v>
       </c>
       <c r="F19" t="n">
-        <v>208.3232013772126</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="G19" t="n">
-        <v>178.1742084042041</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="H19" t="n">
-        <v>42.3118910305382</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="I19" t="n">
-        <v>42.3118910305382</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="J19" t="n">
         <v>83.71633013505024</v>
       </c>
       <c r="K19" t="n">
-        <v>164.5749387647575</v>
+        <v>411.8575478787795</v>
       </c>
       <c r="L19" t="n">
-        <v>469.1182264019617</v>
+        <v>896.5773139979804</v>
       </c>
       <c r="M19" t="n">
-        <v>992.7278779048719</v>
+        <v>1420.186965500891</v>
       </c>
       <c r="N19" t="n">
-        <v>1504.058356479056</v>
+        <v>1881.76068078226</v>
       </c>
       <c r="O19" t="n">
         <v>1983.108434292712</v>
       </c>
       <c r="P19" t="n">
-        <v>2066.731375476995</v>
+        <v>2066.731375476996</v>
       </c>
       <c r="Q19" t="n">
         <v>2115.59455152691</v>
       </c>
       <c r="R19" t="n">
-        <v>2115.59455152691</v>
+        <v>2108.67998957453</v>
       </c>
       <c r="S19" t="n">
-        <v>2115.59455152691</v>
+        <v>1954.096459776232</v>
       </c>
       <c r="T19" t="n">
-        <v>1876.068043247232</v>
+        <v>1765.099506046268</v>
       </c>
       <c r="U19" t="n">
-        <v>1595.932269294273</v>
+        <v>1765.099506046268</v>
       </c>
       <c r="V19" t="n">
-        <v>1314.220801902302</v>
+        <v>1483.388038654296</v>
       </c>
       <c r="W19" t="n">
-        <v>1039.368398074815</v>
+        <v>1208.535634826809</v>
       </c>
       <c r="X19" t="n">
-        <v>796.8045015206202</v>
+        <v>965.9717382726146</v>
       </c>
       <c r="Y19" t="n">
-        <v>570.4617332103622</v>
+        <v>739.6289699623567</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>891.5814516976804</v>
+        <v>1743.60636349498</v>
       </c>
       <c r="C20" t="n">
-        <v>891.5814516976804</v>
+        <v>1316.70563350828</v>
       </c>
       <c r="D20" t="n">
-        <v>468.2888308826807</v>
+        <v>893.4130126932805</v>
       </c>
       <c r="E20" t="n">
-        <v>42.31189103053821</v>
+        <v>467.436072841138</v>
       </c>
       <c r="F20" t="n">
         <v>42.31189103053821</v>
@@ -5752,13 +5752,13 @@
         <v>83.27873986633745</v>
       </c>
       <c r="J20" t="n">
-        <v>219.6389544126146</v>
+        <v>219.6389544126145</v>
       </c>
       <c r="K20" t="n">
-        <v>432.2525774933687</v>
+        <v>432.2525774933686</v>
       </c>
       <c r="L20" t="n">
-        <v>702.0151138095609</v>
+        <v>702.0151138095607</v>
       </c>
       <c r="M20" t="n">
         <v>1007.324196722083</v>
@@ -5767,7 +5767,7 @@
         <v>1318.323243648509</v>
       </c>
       <c r="O20" t="n">
-        <v>1609.823844813727</v>
+        <v>1609.823844813728</v>
       </c>
       <c r="P20" t="n">
         <v>1853.006451163902</v>
@@ -5779,25 +5779,25 @@
         <v>2115.59455152691</v>
       </c>
       <c r="S20" t="n">
-        <v>2115.59455152691</v>
+        <v>2056.560219048525</v>
       </c>
       <c r="T20" t="n">
-        <v>1981.345573948282</v>
+        <v>2056.560219048525</v>
       </c>
       <c r="U20" t="n">
-        <v>1723.149814821463</v>
+        <v>2056.560219048525</v>
       </c>
       <c r="V20" t="n">
-        <v>1723.149814821463</v>
+        <v>2056.560219048525</v>
       </c>
       <c r="W20" t="n">
-        <v>1723.149814821463</v>
+        <v>2056.560219048525</v>
       </c>
       <c r="X20" t="n">
-        <v>1311.429815989211</v>
+        <v>2056.560219048525</v>
       </c>
       <c r="Y20" t="n">
-        <v>1311.429815989211</v>
+        <v>2056.560219048525</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>85.67674366497025</v>
       </c>
       <c r="J21" t="n">
-        <v>418.4430847047365</v>
+        <v>312.9875844198307</v>
       </c>
       <c r="K21" t="n">
-        <v>564.7265343579118</v>
+        <v>459.271034073006</v>
       </c>
       <c r="L21" t="n">
-        <v>768.9500978532592</v>
+        <v>663.4945975683534</v>
       </c>
       <c r="M21" t="n">
-        <v>1010.414854927136</v>
+        <v>904.9593546422303</v>
       </c>
       <c r="N21" t="n">
-        <v>1260.611870418759</v>
+        <v>1155.156370133853</v>
       </c>
       <c r="O21" t="n">
-        <v>1485.882542919262</v>
+        <v>1380.427042634356</v>
       </c>
       <c r="P21" t="n">
-        <v>1663.54049454969</v>
+        <v>1558.084994264784</v>
       </c>
       <c r="Q21" t="n">
-        <v>1774.188260950484</v>
+        <v>1668.732760665578</v>
       </c>
       <c r="R21" t="n">
         <v>1815.523812931707</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>380.295764498297</v>
+        <v>1089.830795645248</v>
       </c>
       <c r="C22" t="n">
-        <v>208.3232013772131</v>
+        <v>917.8582325241637</v>
       </c>
       <c r="D22" t="n">
-        <v>208.3232013772131</v>
+        <v>754.5414596509344</v>
       </c>
       <c r="E22" t="n">
-        <v>208.3232013772131</v>
+        <v>588.3332538037879</v>
       </c>
       <c r="F22" t="n">
-        <v>208.3232013772131</v>
+        <v>416.4714795783483</v>
       </c>
       <c r="G22" t="n">
-        <v>208.3232013772131</v>
+        <v>251.1068765627642</v>
       </c>
       <c r="H22" t="n">
-        <v>72.46088400354711</v>
+        <v>115.2445591890983</v>
       </c>
       <c r="I22" t="n">
         <v>42.31189103053821</v>
       </c>
       <c r="J22" t="n">
-        <v>161.6380467832711</v>
+        <v>83.71633013505024</v>
       </c>
       <c r="K22" t="n">
-        <v>360.7873538739262</v>
+        <v>164.5749387647575</v>
       </c>
       <c r="L22" t="n">
-        <v>469.118226401962</v>
+        <v>649.2947048839583</v>
       </c>
       <c r="M22" t="n">
-        <v>992.7278779048723</v>
+        <v>1172.904356386869</v>
       </c>
       <c r="N22" t="n">
-        <v>1504.058356479057</v>
+        <v>1684.234834961053</v>
       </c>
       <c r="O22" t="n">
-        <v>1983.108434292712</v>
+        <v>1785.582588471505</v>
       </c>
       <c r="P22" t="n">
         <v>2066.731375476996</v>
@@ -5934,28 +5934,28 @@
         <v>2115.59455152691</v>
       </c>
       <c r="R22" t="n">
-        <v>2115.59455152691</v>
+        <v>2108.67998957453</v>
       </c>
       <c r="S22" t="n">
-        <v>2115.59455152691</v>
+        <v>1954.096459776232</v>
       </c>
       <c r="T22" t="n">
-        <v>1876.068043247232</v>
+        <v>1841.844005702243</v>
       </c>
       <c r="U22" t="n">
-        <v>1595.932269294274</v>
+        <v>1561.708231749285</v>
       </c>
       <c r="V22" t="n">
-        <v>1314.220801902303</v>
+        <v>1279.996764357313</v>
       </c>
       <c r="W22" t="n">
-        <v>1039.368398074816</v>
+        <v>1279.996764357313</v>
       </c>
       <c r="X22" t="n">
-        <v>796.8045015206206</v>
+        <v>1279.996764357313</v>
       </c>
       <c r="Y22" t="n">
-        <v>570.4617332103627</v>
+        <v>1279.996764357313</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>912.9657470509649</v>
+        <v>1761.382549676564</v>
       </c>
       <c r="C23" t="n">
-        <v>486.0650170642649</v>
+        <v>1334.481819689865</v>
       </c>
       <c r="D23" t="n">
-        <v>486.0650170642649</v>
+        <v>911.1891988748647</v>
       </c>
       <c r="E23" t="n">
-        <v>60.08807721212248</v>
+        <v>485.2122590227223</v>
       </c>
       <c r="F23" t="n">
         <v>60.08807721212248</v>
@@ -5989,25 +5989,25 @@
         <v>101.0549260479218</v>
       </c>
       <c r="J23" t="n">
-        <v>464.3606978513421</v>
+        <v>629.144359301825</v>
       </c>
       <c r="K23" t="n">
-        <v>676.9743209320961</v>
+        <v>1168.823228294831</v>
       </c>
       <c r="L23" t="n">
-        <v>946.7368572482883</v>
+        <v>1438.585764611023</v>
       </c>
       <c r="M23" t="n">
-        <v>1252.04594016081</v>
+        <v>1743.894847523546</v>
       </c>
       <c r="N23" t="n">
-        <v>1563.044987087237</v>
+        <v>2054.893894449972</v>
       </c>
       <c r="O23" t="n">
-        <v>1854.545588252455</v>
+        <v>2346.39449561519</v>
       </c>
       <c r="P23" t="n">
-        <v>2097.728194602629</v>
+        <v>2589.577101965364</v>
       </c>
       <c r="Q23" t="n">
         <v>2764.369040424247</v>
@@ -6022,19 +6022,19 @@
         <v>2733.152461379336</v>
       </c>
       <c r="U23" t="n">
-        <v>2474.956702252517</v>
+        <v>2592.950912800347</v>
       </c>
       <c r="V23" t="n">
-        <v>2117.467287378767</v>
+        <v>2592.950912800347</v>
       </c>
       <c r="W23" t="n">
-        <v>1721.075937679114</v>
+        <v>2592.950912800347</v>
       </c>
       <c r="X23" t="n">
-        <v>1309.355938846861</v>
+        <v>2181.230913968095</v>
       </c>
       <c r="Y23" t="n">
-        <v>912.9657470509649</v>
+        <v>2181.230913968095</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>60.08807721212248</v>
       </c>
       <c r="I24" t="n">
-        <v>79.99562400214266</v>
+        <v>103.4529298465545</v>
       </c>
       <c r="J24" t="n">
-        <v>158.1529334944047</v>
+        <v>181.6102393388166</v>
       </c>
       <c r="K24" t="n">
-        <v>304.43638314758</v>
+        <v>327.8936889919919</v>
       </c>
       <c r="L24" t="n">
-        <v>508.6599466429274</v>
+        <v>532.1172524873393</v>
       </c>
       <c r="M24" t="n">
-        <v>750.1247037168043</v>
+        <v>773.5820095612163</v>
       </c>
       <c r="N24" t="n">
-        <v>1000.321719208427</v>
+        <v>1023.779025052839</v>
       </c>
       <c r="O24" t="n">
-        <v>1225.59239170893</v>
+        <v>1249.049697553342</v>
       </c>
       <c r="P24" t="n">
-        <v>1403.250343339358</v>
+        <v>1426.70764918377</v>
       </c>
       <c r="Q24" t="n">
-        <v>1791.964447132068</v>
+        <v>1686.508946847162</v>
       </c>
       <c r="R24" t="n">
         <v>1833.299999113292</v>
@@ -6159,7 +6159,7 @@
         <v>1520.559884252095</v>
       </c>
       <c r="N25" t="n">
-        <v>2031.89036282628</v>
+        <v>1928.737963607064</v>
       </c>
       <c r="O25" t="n">
         <v>2407.788041420719</v>
@@ -6174,7 +6174,7 @@
         <v>2997.489298653744</v>
       </c>
       <c r="S25" t="n">
-        <v>2842.905768855445</v>
+        <v>2842.905768855446</v>
       </c>
       <c r="T25" t="n">
         <v>2603.379260575767</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>696.3873712586244</v>
+        <v>1559.423332514402</v>
       </c>
       <c r="C26" t="n">
-        <v>269.4866412719245</v>
+        <v>1559.423332514402</v>
       </c>
       <c r="D26" t="n">
-        <v>269.4866412719245</v>
+        <v>1136.130711699402</v>
       </c>
       <c r="E26" t="n">
-        <v>269.4866412719245</v>
+        <v>739.9324175394933</v>
       </c>
       <c r="F26" t="n">
-        <v>60.08807721212248</v>
+        <v>739.9324175394933</v>
       </c>
       <c r="G26" t="n">
-        <v>60.08807721212248</v>
+        <v>337.5827335885568</v>
       </c>
       <c r="H26" t="n">
         <v>60.08807721212248</v>
@@ -6226,28 +6226,28 @@
         <v>101.0549260479218</v>
       </c>
       <c r="J26" t="n">
-        <v>237.4151405941988</v>
+        <v>629.144359301825</v>
       </c>
       <c r="K26" t="n">
-        <v>450.0287636749529</v>
+        <v>841.757982382579</v>
       </c>
       <c r="L26" t="n">
-        <v>719.791299991145</v>
+        <v>1111.520518698771</v>
       </c>
       <c r="M26" t="n">
-        <v>1025.100382903667</v>
+        <v>1416.829601611293</v>
       </c>
       <c r="N26" t="n">
-        <v>1755.043198392926</v>
+        <v>1727.82864853772</v>
       </c>
       <c r="O26" t="n">
-        <v>2498.633153892942</v>
+        <v>2019.329249702938</v>
       </c>
       <c r="P26" t="n">
-        <v>2741.815760243115</v>
+        <v>2262.511856053111</v>
       </c>
       <c r="Q26" t="n">
-        <v>2916.607698701998</v>
+        <v>2764.369040424247</v>
       </c>
       <c r="R26" t="n">
         <v>3004.403860606124</v>
@@ -6256,22 +6256,22 @@
         <v>2945.369528127739</v>
       </c>
       <c r="T26" t="n">
-        <v>2945.369528127739</v>
+        <v>2733.152461379336</v>
       </c>
       <c r="U26" t="n">
-        <v>2687.17376900092</v>
+        <v>2733.152461379336</v>
       </c>
       <c r="V26" t="n">
-        <v>2329.68435412717</v>
+        <v>2375.663046505585</v>
       </c>
       <c r="W26" t="n">
-        <v>1933.293004427517</v>
+        <v>1979.271696805932</v>
       </c>
       <c r="X26" t="n">
-        <v>1521.573005595264</v>
+        <v>1979.271696805932</v>
       </c>
       <c r="Y26" t="n">
-        <v>1116.235735550154</v>
+        <v>1979.271696805932</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>60.08807721212248</v>
       </c>
       <c r="I27" t="n">
-        <v>79.99562400214266</v>
+        <v>103.4529298465545</v>
       </c>
       <c r="J27" t="n">
-        <v>158.1529334944047</v>
+        <v>181.6102393388166</v>
       </c>
       <c r="K27" t="n">
-        <v>304.43638314758</v>
+        <v>327.8936889919919</v>
       </c>
       <c r="L27" t="n">
-        <v>508.6599466429274</v>
+        <v>532.1172524873393</v>
       </c>
       <c r="M27" t="n">
-        <v>750.1247037168043</v>
+        <v>773.5820095612163</v>
       </c>
       <c r="N27" t="n">
-        <v>1000.321719208427</v>
+        <v>1023.779025052839</v>
       </c>
       <c r="O27" t="n">
-        <v>1225.59239170893</v>
+        <v>1249.049697553342</v>
       </c>
       <c r="P27" t="n">
-        <v>1681.316680731274</v>
+        <v>1426.70764918377</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.964447132068</v>
+        <v>1686.508946847162</v>
       </c>
       <c r="R27" t="n">
         <v>1833.299999113292</v>
@@ -6384,34 +6384,34 @@
         <v>60.08807721212248</v>
       </c>
       <c r="J28" t="n">
-        <v>101.4925163166345</v>
+        <v>179.4142329648554</v>
       </c>
       <c r="K28" t="n">
-        <v>429.6337340603638</v>
+        <v>507.5554507085847</v>
       </c>
       <c r="L28" t="n">
-        <v>914.3535001795645</v>
+        <v>992.2752168277855</v>
       </c>
       <c r="M28" t="n">
-        <v>1442.638167603874</v>
+        <v>1520.559884252095</v>
       </c>
       <c r="N28" t="n">
-        <v>1928.737963607064</v>
+        <v>2031.89036282628</v>
       </c>
       <c r="O28" t="n">
-        <v>2407.788041420719</v>
+        <v>2510.940440639935</v>
       </c>
       <c r="P28" t="n">
-        <v>2804.16718717831</v>
+        <v>2907.319586397526</v>
       </c>
       <c r="Q28" t="n">
         <v>3004.403860606124</v>
       </c>
       <c r="R28" t="n">
-        <v>2997.489298653743</v>
+        <v>2997.489298653744</v>
       </c>
       <c r="S28" t="n">
-        <v>2842.905768855445</v>
+        <v>2842.905768855446</v>
       </c>
       <c r="T28" t="n">
         <v>2603.379260575767</v>
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2163.732233627501</v>
+        <v>1313.538882825801</v>
       </c>
       <c r="C29" t="n">
-        <v>1736.831503640801</v>
+        <v>1313.538882825801</v>
       </c>
       <c r="D29" t="n">
         <v>1313.538882825801</v>
@@ -6463,7 +6463,7 @@
         <v>101.0549260479218</v>
       </c>
       <c r="J29" t="n">
-        <v>237.4151405941988</v>
+        <v>616.5993561290934</v>
       </c>
       <c r="K29" t="n">
         <v>829.2129792098474</v>
@@ -6490,25 +6490,25 @@
         <v>3004.403860606124</v>
       </c>
       <c r="S29" t="n">
-        <v>3004.403860606124</v>
+        <v>2945.369528127739</v>
       </c>
       <c r="T29" t="n">
-        <v>3004.403860606124</v>
+        <v>2945.369528127739</v>
       </c>
       <c r="U29" t="n">
-        <v>3004.403860606124</v>
+        <v>2907.933930868444</v>
       </c>
       <c r="V29" t="n">
-        <v>2646.914445732374</v>
+        <v>2550.444515994694</v>
       </c>
       <c r="W29" t="n">
-        <v>2583.580597919031</v>
+        <v>2550.444515994694</v>
       </c>
       <c r="X29" t="n">
-        <v>2583.580597919031</v>
+        <v>2138.724517162441</v>
       </c>
       <c r="Y29" t="n">
-        <v>2583.580597919031</v>
+        <v>1733.387247117331</v>
       </c>
     </row>
     <row r="30">
@@ -6542,16 +6542,16 @@
         <v>103.4529298465545</v>
       </c>
       <c r="J30" t="n">
-        <v>330.7637706014154</v>
+        <v>330.763770601415</v>
       </c>
       <c r="K30" t="n">
-        <v>477.0472202545907</v>
+        <v>477.0472202545903</v>
       </c>
       <c r="L30" t="n">
-        <v>681.270783749938</v>
+        <v>681.2707837499377</v>
       </c>
       <c r="M30" t="n">
-        <v>922.735540823815</v>
+        <v>922.7355408238146</v>
       </c>
       <c r="N30" t="n">
         <v>1172.932556315437</v>
@@ -6560,7 +6560,7 @@
         <v>1398.203228815941</v>
       </c>
       <c r="P30" t="n">
-        <v>1575.861180446369</v>
+        <v>1575.861180446368</v>
       </c>
       <c r="Q30" t="n">
         <v>1686.508946847162</v>
@@ -6621,25 +6621,25 @@
         <v>60.08807721212248</v>
       </c>
       <c r="J31" t="n">
-        <v>101.4925163166345</v>
+        <v>179.4142329648554</v>
       </c>
       <c r="K31" t="n">
-        <v>429.6337340603638</v>
+        <v>507.5554507085847</v>
       </c>
       <c r="L31" t="n">
-        <v>914.3535001795645</v>
+        <v>992.2752168277855</v>
       </c>
       <c r="M31" t="n">
-        <v>1442.638167603874</v>
+        <v>1520.559884252095</v>
       </c>
       <c r="N31" t="n">
-        <v>1953.968646178059</v>
+        <v>1928.737963607064</v>
       </c>
       <c r="O31" t="n">
-        <v>2433.018723991715</v>
+        <v>2407.788041420719</v>
       </c>
       <c r="P31" t="n">
-        <v>2829.397869749305</v>
+        <v>2804.16718717831</v>
       </c>
       <c r="Q31" t="n">
         <v>3004.403860606124</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>908.504879837722</v>
+        <v>1870.934055009737</v>
       </c>
       <c r="C32" t="n">
-        <v>908.504879837722</v>
+        <v>1444.033325023038</v>
       </c>
       <c r="D32" t="n">
-        <v>485.2122590227223</v>
+        <v>1020.740704208038</v>
       </c>
       <c r="E32" t="n">
-        <v>485.2122590227223</v>
+        <v>594.7637643558954</v>
       </c>
       <c r="F32" t="n">
-        <v>60.08807721212248</v>
+        <v>594.7637643558954</v>
       </c>
       <c r="G32" t="n">
-        <v>60.08807721212248</v>
+        <v>192.414080404959</v>
       </c>
       <c r="H32" t="n">
         <v>60.08807721212248</v>
@@ -6700,52 +6700,52 @@
         <v>101.0549260479218</v>
       </c>
       <c r="J32" t="n">
-        <v>237.4151405941988</v>
+        <v>629.144359301825</v>
       </c>
       <c r="K32" t="n">
-        <v>450.0287636749529</v>
+        <v>1321.061886572583</v>
       </c>
       <c r="L32" t="n">
-        <v>986.4964102762265</v>
+        <v>1590.824422888775</v>
       </c>
       <c r="M32" t="n">
-        <v>1291.805493188749</v>
+        <v>1896.133505801297</v>
       </c>
       <c r="N32" t="n">
-        <v>1602.804540115175</v>
+        <v>2207.132552727723</v>
       </c>
       <c r="O32" t="n">
-        <v>2346.39449561519</v>
+        <v>2498.633153892942</v>
       </c>
       <c r="P32" t="n">
-        <v>2589.577101965364</v>
+        <v>2741.815760243115</v>
       </c>
       <c r="Q32" t="n">
-        <v>2764.369040424247</v>
+        <v>2916.607698701998</v>
       </c>
       <c r="R32" t="n">
         <v>3004.403860606124</v>
       </c>
       <c r="S32" t="n">
-        <v>3004.403860606124</v>
+        <v>2945.369528127739</v>
       </c>
       <c r="T32" t="n">
-        <v>2899.291277580018</v>
+        <v>2945.369528127739</v>
       </c>
       <c r="U32" t="n">
-        <v>2899.291277580018</v>
+        <v>2687.17376900092</v>
       </c>
       <c r="V32" t="n">
-        <v>2541.801862706267</v>
+        <v>2687.17376900092</v>
       </c>
       <c r="W32" t="n">
-        <v>2145.410513006615</v>
+        <v>2290.782419301268</v>
       </c>
       <c r="X32" t="n">
-        <v>1733.690514174362</v>
+        <v>2290.782419301268</v>
       </c>
       <c r="Y32" t="n">
-        <v>1328.353244129252</v>
+        <v>2290.782419301268</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>60.08807721212248</v>
       </c>
       <c r="I33" t="n">
-        <v>79.99562400214266</v>
+        <v>103.4529298465545</v>
       </c>
       <c r="J33" t="n">
-        <v>158.1529334944047</v>
+        <v>330.763770601415</v>
       </c>
       <c r="K33" t="n">
-        <v>304.43638314758</v>
+        <v>477.0472202545903</v>
       </c>
       <c r="L33" t="n">
-        <v>508.6599466429274</v>
+        <v>681.2707837499377</v>
       </c>
       <c r="M33" t="n">
-        <v>1028.191041108721</v>
+        <v>922.7355408238146</v>
       </c>
       <c r="N33" t="n">
-        <v>1278.388056600343</v>
+        <v>1172.932556315437</v>
       </c>
       <c r="O33" t="n">
-        <v>1503.658729100847</v>
+        <v>1398.203228815941</v>
       </c>
       <c r="P33" t="n">
-        <v>1681.316680731274</v>
+        <v>1575.861180446368</v>
       </c>
       <c r="Q33" t="n">
-        <v>1791.964447132068</v>
+        <v>1686.508946847162</v>
       </c>
       <c r="R33" t="n">
         <v>1833.299999113292</v>
@@ -6846,13 +6846,13 @@
         <v>606.1094399853721</v>
       </c>
       <c r="F34" t="n">
-        <v>434.2476657599326</v>
+        <v>434.2476657599325</v>
       </c>
       <c r="G34" t="n">
         <v>268.8830627443485</v>
       </c>
       <c r="H34" t="n">
-        <v>133.0207453706826</v>
+        <v>133.0207453706825</v>
       </c>
       <c r="I34" t="n">
         <v>60.08807721212248</v>
@@ -6861,16 +6861,16 @@
         <v>101.4925163166345</v>
       </c>
       <c r="K34" t="n">
-        <v>429.6337340603638</v>
+        <v>404.4030514893684</v>
       </c>
       <c r="L34" t="n">
-        <v>914.3535001795645</v>
+        <v>889.1228176085691</v>
       </c>
       <c r="M34" t="n">
         <v>1417.407485032879</v>
       </c>
       <c r="N34" t="n">
-        <v>1928.737963607064</v>
+        <v>1928.737963607063</v>
       </c>
       <c r="O34" t="n">
         <v>2407.788041420719</v>
@@ -6882,7 +6882,7 @@
         <v>3004.403860606124</v>
       </c>
       <c r="R34" t="n">
-        <v>2997.489298653744</v>
+        <v>2997.489298653743</v>
       </c>
       <c r="S34" t="n">
         <v>2842.905768855445</v>
@@ -6891,7 +6891,7 @@
         <v>2603.379260575767</v>
       </c>
       <c r="U34" t="n">
-        <v>2323.243486622809</v>
+        <v>2323.243486622808</v>
       </c>
       <c r="V34" t="n">
         <v>2041.532019230837</v>
@@ -6900,10 +6900,10 @@
         <v>1766.67961540335</v>
       </c>
       <c r="X34" t="n">
-        <v>1524.115718849156</v>
+        <v>1524.115718849155</v>
       </c>
       <c r="Y34" t="n">
-        <v>1297.772950538898</v>
+        <v>1297.772950538897</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>949.9937881212541</v>
+        <v>1145.448852172909</v>
       </c>
       <c r="C35" t="n">
-        <v>949.9937881212541</v>
+        <v>1145.448852172909</v>
       </c>
       <c r="D35" t="n">
         <v>722.1562313579091</v>
@@ -6934,25 +6934,25 @@
         <v>42.31189103053821</v>
       </c>
       <c r="I35" t="n">
-        <v>83.27873986633756</v>
+        <v>83.27873986633745</v>
       </c>
       <c r="J35" t="n">
         <v>219.6389544126146</v>
       </c>
       <c r="K35" t="n">
-        <v>432.2525774933686</v>
+        <v>432.2525774933687</v>
       </c>
       <c r="L35" t="n">
-        <v>702.0151138095607</v>
+        <v>702.0151138095609</v>
       </c>
       <c r="M35" t="n">
         <v>1007.324196722083</v>
       </c>
       <c r="N35" t="n">
-        <v>1318.32324364851</v>
+        <v>1318.323243648509</v>
       </c>
       <c r="O35" t="n">
-        <v>1609.823844813728</v>
+        <v>1609.823844813727</v>
       </c>
       <c r="P35" t="n">
         <v>1853.006451163902</v>
@@ -6970,19 +6970,19 @@
         <v>2115.59455152691</v>
       </c>
       <c r="U35" t="n">
-        <v>2115.59455152691</v>
+        <v>1857.398792400092</v>
       </c>
       <c r="V35" t="n">
-        <v>1758.10513665316</v>
+        <v>1541.840201872562</v>
       </c>
       <c r="W35" t="n">
-        <v>1361.713786953507</v>
+        <v>1145.448852172909</v>
       </c>
       <c r="X35" t="n">
-        <v>949.9937881212541</v>
+        <v>1145.448852172909</v>
       </c>
       <c r="Y35" t="n">
-        <v>949.9937881212541</v>
+        <v>1145.448852172909</v>
       </c>
     </row>
     <row r="36">
@@ -7016,16 +7016,16 @@
         <v>85.67674366497025</v>
       </c>
       <c r="J36" t="n">
-        <v>163.8340531572323</v>
+        <v>312.9875844198307</v>
       </c>
       <c r="K36" t="n">
-        <v>310.1175028104076</v>
+        <v>459.271034073006</v>
       </c>
       <c r="L36" t="n">
-        <v>514.3410663057549</v>
+        <v>663.4945975683534</v>
       </c>
       <c r="M36" t="n">
-        <v>904.9593546422307</v>
+        <v>904.9593546422303</v>
       </c>
       <c r="N36" t="n">
         <v>1155.156370133853</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>373.3812025459164</v>
+        <v>415.8782034120642</v>
       </c>
       <c r="C37" t="n">
-        <v>373.3812025459164</v>
+        <v>415.8782034120642</v>
       </c>
       <c r="D37" t="n">
-        <v>373.3812025459164</v>
+        <v>252.5614305388349</v>
       </c>
       <c r="E37" t="n">
-        <v>214.1736652559778</v>
+        <v>252.5614305388349</v>
       </c>
       <c r="F37" t="n">
-        <v>42.31189103053821</v>
+        <v>252.5614305388349</v>
       </c>
       <c r="G37" t="n">
-        <v>42.31189103053821</v>
+        <v>115.2445591890983</v>
       </c>
       <c r="H37" t="n">
-        <v>42.31189103053821</v>
+        <v>115.2445591890983</v>
       </c>
       <c r="I37" t="n">
         <v>42.31189103053821</v>
@@ -7098,16 +7098,16 @@
         <v>161.6380467832711</v>
       </c>
       <c r="K37" t="n">
-        <v>489.7792645270004</v>
+        <v>242.4966554129784</v>
       </c>
       <c r="L37" t="n">
-        <v>598.1101370550361</v>
+        <v>727.2164215321791</v>
       </c>
       <c r="M37" t="n">
-        <v>712.8593240165242</v>
+        <v>841.9656084936671</v>
       </c>
       <c r="N37" t="n">
-        <v>1224.189802590708</v>
+        <v>1039.92865452785</v>
       </c>
       <c r="O37" t="n">
         <v>1518.978732341506</v>
@@ -7119,28 +7119,28 @@
         <v>2115.59455152691</v>
       </c>
       <c r="R37" t="n">
-        <v>2108.67998957453</v>
+        <v>2115.59455152691</v>
       </c>
       <c r="S37" t="n">
-        <v>2108.67998957453</v>
+        <v>1961.011021728612</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.153481294852</v>
+        <v>1721.484513448934</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.017707341893</v>
+        <v>1441.348739495975</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.306239949922</v>
+        <v>1159.637272104004</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.453836122435</v>
+        <v>884.784868276517</v>
       </c>
       <c r="X37" t="n">
-        <v>789.88993956824</v>
+        <v>642.2209717223221</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5471712579821</v>
+        <v>415.8782034120642</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>544.6565180761444</v>
+        <v>1320.31374267998</v>
       </c>
       <c r="C38" t="n">
-        <v>544.6565180761444</v>
+        <v>893.4130126932805</v>
       </c>
       <c r="D38" t="n">
-        <v>544.6565180761444</v>
+        <v>893.4130126932805</v>
       </c>
       <c r="E38" t="n">
-        <v>544.6565180761444</v>
+        <v>467.436072841138</v>
       </c>
       <c r="F38" t="n">
-        <v>544.6565180761444</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="G38" t="n">
-        <v>319.8065474069725</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="H38" t="n">
         <v>42.31189103053821</v>
       </c>
       <c r="I38" t="n">
-        <v>83.27873986633813</v>
+        <v>83.27873986633745</v>
       </c>
       <c r="J38" t="n">
-        <v>219.6389544126152</v>
+        <v>219.6389544126145</v>
       </c>
       <c r="K38" t="n">
-        <v>432.2525774933695</v>
+        <v>432.2525774933686</v>
       </c>
       <c r="L38" t="n">
-        <v>702.0151138095614</v>
+        <v>702.0151138095607</v>
       </c>
       <c r="M38" t="n">
         <v>1007.324196722083</v>
       </c>
       <c r="N38" t="n">
-        <v>1318.32324364851</v>
+        <v>1318.323243648509</v>
       </c>
       <c r="O38" t="n">
         <v>1609.823844813728</v>
@@ -7201,25 +7201,25 @@
         <v>2115.59455152691</v>
       </c>
       <c r="S38" t="n">
-        <v>2115.59455152691</v>
+        <v>2056.560219048525</v>
       </c>
       <c r="T38" t="n">
-        <v>2115.59455152691</v>
+        <v>2056.560219048525</v>
       </c>
       <c r="U38" t="n">
-        <v>2115.59455152691</v>
+        <v>2056.560219048525</v>
       </c>
       <c r="V38" t="n">
-        <v>1758.10513665316</v>
+        <v>2056.560219048525</v>
       </c>
       <c r="W38" t="n">
-        <v>1361.713786953507</v>
+        <v>1660.168869348872</v>
       </c>
       <c r="X38" t="n">
-        <v>949.9937881212541</v>
+        <v>1660.168869348872</v>
       </c>
       <c r="Y38" t="n">
-        <v>544.6565180761444</v>
+        <v>1660.168869348872</v>
       </c>
     </row>
     <row r="39">
@@ -7250,19 +7250,19 @@
         <v>42.31189103053821</v>
       </c>
       <c r="I39" t="n">
-        <v>62.2194378205584</v>
+        <v>62.21943782055841</v>
       </c>
       <c r="J39" t="n">
-        <v>418.443084704737</v>
+        <v>418.4430847047365</v>
       </c>
       <c r="K39" t="n">
-        <v>564.7265343579122</v>
+        <v>564.7265343579118</v>
       </c>
       <c r="L39" t="n">
-        <v>768.9500978532595</v>
+        <v>768.9500978532592</v>
       </c>
       <c r="M39" t="n">
-        <v>1010.414854927137</v>
+        <v>1010.414854927136</v>
       </c>
       <c r="N39" t="n">
         <v>1260.611870418759</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>625.2871023827684</v>
+        <v>624.4434995512059</v>
       </c>
       <c r="C40" t="n">
-        <v>453.3145392616843</v>
+        <v>452.4709364301219</v>
       </c>
       <c r="D40" t="n">
-        <v>453.3145392616843</v>
+        <v>452.4709364301219</v>
       </c>
       <c r="E40" t="n">
-        <v>287.1063334145379</v>
+        <v>452.4709364301219</v>
       </c>
       <c r="F40" t="n">
-        <v>115.2445591890983</v>
+        <v>280.6091622046823</v>
       </c>
       <c r="G40" t="n">
         <v>115.2445591890983</v>
@@ -7332,19 +7332,19 @@
         <v>42.31189103053821</v>
       </c>
       <c r="J40" t="n">
-        <v>83.71633013505024</v>
+        <v>161.6380467832711</v>
       </c>
       <c r="K40" t="n">
-        <v>164.5749387647575</v>
+        <v>489.7792645270004</v>
       </c>
       <c r="L40" t="n">
-        <v>469.118226401962</v>
+        <v>974.4990306462012</v>
       </c>
       <c r="M40" t="n">
-        <v>992.7278779048723</v>
+        <v>1498.108682149111</v>
       </c>
       <c r="N40" t="n">
-        <v>1504.058356479057</v>
+        <v>1881.76068078226</v>
       </c>
       <c r="O40" t="n">
         <v>1983.108434292712</v>
@@ -7359,25 +7359,25 @@
         <v>2108.67998957453</v>
       </c>
       <c r="S40" t="n">
-        <v>2108.67998957453</v>
+        <v>1954.096459776232</v>
       </c>
       <c r="T40" t="n">
-        <v>2108.67998957453</v>
+        <v>1930.049809588075</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.544215621571</v>
+        <v>1649.914035635117</v>
       </c>
       <c r="V40" t="n">
-        <v>1546.8327482296</v>
+        <v>1368.202568243146</v>
       </c>
       <c r="W40" t="n">
-        <v>1271.980344402113</v>
+        <v>1093.350164415659</v>
       </c>
       <c r="X40" t="n">
-        <v>1041.795839405092</v>
+        <v>850.7862678614639</v>
       </c>
       <c r="Y40" t="n">
-        <v>815.4530710948341</v>
+        <v>624.4434995512059</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>895.1895608693806</v>
+        <v>722.1562313579091</v>
       </c>
       <c r="C41" t="n">
-        <v>468.2888308826807</v>
+        <v>722.1562313579091</v>
       </c>
       <c r="D41" t="n">
-        <v>468.2888308826807</v>
+        <v>722.1562313579091</v>
       </c>
       <c r="E41" t="n">
-        <v>42.31189103053821</v>
+        <v>722.1562313579091</v>
       </c>
       <c r="F41" t="n">
-        <v>42.31189103053821</v>
+        <v>722.1562313579091</v>
       </c>
       <c r="G41" t="n">
-        <v>42.31189103053821</v>
+        <v>319.8065474069725</v>
       </c>
       <c r="H41" t="n">
-        <v>42.31189103053821</v>
+        <v>42.3118910305382</v>
       </c>
       <c r="I41" t="n">
-        <v>83.27873986633756</v>
+        <v>83.27873986633753</v>
       </c>
       <c r="J41" t="n">
-        <v>219.6389544126146</v>
+        <v>219.6389544126145</v>
       </c>
       <c r="K41" t="n">
         <v>432.2525774933686</v>
@@ -7441,22 +7441,22 @@
         <v>2056.560219048525</v>
       </c>
       <c r="T41" t="n">
-        <v>1844.343152300122</v>
+        <v>2056.560219048525</v>
       </c>
       <c r="U41" t="n">
-        <v>1586.147393173304</v>
+        <v>1798.364459921706</v>
       </c>
       <c r="V41" t="n">
-        <v>1306.909559701633</v>
+        <v>1440.875045047956</v>
       </c>
       <c r="W41" t="n">
-        <v>1306.909559701633</v>
+        <v>1044.483695348302</v>
       </c>
       <c r="X41" t="n">
-        <v>895.1895608693806</v>
+        <v>722.1562313579091</v>
       </c>
       <c r="Y41" t="n">
-        <v>895.1895608693806</v>
+        <v>722.1562313579091</v>
       </c>
     </row>
     <row r="42">
@@ -7472,46 +7472,46 @@
         <v>480.5850948328476</v>
       </c>
       <c r="D42" t="n">
-        <v>376.7451363481327</v>
+        <v>376.7451363481326</v>
       </c>
       <c r="E42" t="n">
-        <v>272.0432026210699</v>
+        <v>272.0432026210698</v>
       </c>
       <c r="F42" t="n">
-        <v>178.3973723039741</v>
+        <v>178.397372303974</v>
       </c>
       <c r="G42" t="n">
-        <v>85.4080118360786</v>
+        <v>85.40801183607857</v>
       </c>
       <c r="H42" t="n">
-        <v>42.31189103053821</v>
+        <v>42.3118910305382</v>
       </c>
       <c r="I42" t="n">
         <v>85.67674366497025</v>
       </c>
       <c r="J42" t="n">
-        <v>163.8340531572323</v>
+        <v>312.9875844198307</v>
       </c>
       <c r="K42" t="n">
-        <v>310.1175028104076</v>
+        <v>459.271034073006</v>
       </c>
       <c r="L42" t="n">
-        <v>514.341066305755</v>
+        <v>663.4945975683534</v>
       </c>
       <c r="M42" t="n">
-        <v>755.805823379632</v>
+        <v>904.9593546422303</v>
       </c>
       <c r="N42" t="n">
-        <v>1260.611870418759</v>
+        <v>1155.156370133853</v>
       </c>
       <c r="O42" t="n">
-        <v>1485.882542919262</v>
+        <v>1380.427042634356</v>
       </c>
       <c r="P42" t="n">
-        <v>1663.54049454969</v>
+        <v>1558.084994264784</v>
       </c>
       <c r="Q42" t="n">
-        <v>1774.188260950484</v>
+        <v>1668.732760665578</v>
       </c>
       <c r="R42" t="n">
         <v>1815.523812931707</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1020.171422372226</v>
+        <v>917.8582325241637</v>
       </c>
       <c r="C43" t="n">
-        <v>848.198859251142</v>
+        <v>917.8582325241637</v>
       </c>
       <c r="D43" t="n">
         <v>754.5414596509344</v>
@@ -7566,55 +7566,55 @@
         <v>115.2445591890983</v>
       </c>
       <c r="I43" t="n">
-        <v>42.31189103053821</v>
+        <v>42.3118910305382</v>
       </c>
       <c r="J43" t="n">
         <v>83.71633013505024</v>
       </c>
       <c r="K43" t="n">
-        <v>164.5749387647575</v>
+        <v>411.8575478787795</v>
       </c>
       <c r="L43" t="n">
-        <v>469.118226401962</v>
+        <v>896.5773139979804</v>
       </c>
       <c r="M43" t="n">
-        <v>992.7278779048723</v>
+        <v>1420.18696550089</v>
       </c>
       <c r="N43" t="n">
-        <v>1504.058356479057</v>
+        <v>1533.484521233195</v>
       </c>
       <c r="O43" t="n">
         <v>1983.108434292712</v>
       </c>
       <c r="P43" t="n">
-        <v>2066.731375476996</v>
+        <v>2066.731375476995</v>
       </c>
       <c r="Q43" t="n">
         <v>2115.59455152691</v>
       </c>
       <c r="R43" t="n">
-        <v>2108.67998957453</v>
+        <v>2115.59455152691</v>
       </c>
       <c r="S43" t="n">
-        <v>1954.096459776232</v>
+        <v>1961.011021728612</v>
       </c>
       <c r="T43" t="n">
-        <v>1954.096459776232</v>
+        <v>1721.484513448933</v>
       </c>
       <c r="U43" t="n">
-        <v>1954.096459776232</v>
+        <v>1441.348739495975</v>
       </c>
       <c r="V43" t="n">
-        <v>1954.096459776232</v>
+        <v>1192.710636351651</v>
       </c>
       <c r="W43" t="n">
-        <v>1679.244055948745</v>
+        <v>917.8582325241637</v>
       </c>
       <c r="X43" t="n">
-        <v>1436.68015939455</v>
+        <v>917.8582325241637</v>
       </c>
       <c r="Y43" t="n">
-        <v>1210.337391084292</v>
+        <v>917.8582325241637</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1844.343152300122</v>
+        <v>746.7072773936725</v>
       </c>
       <c r="C44" t="n">
-        <v>1417.442422313422</v>
+        <v>319.8065474069725</v>
       </c>
       <c r="D44" t="n">
-        <v>1417.442422313422</v>
+        <v>319.8065474069725</v>
       </c>
       <c r="E44" t="n">
-        <v>1147.280413168509</v>
+        <v>319.8065474069725</v>
       </c>
       <c r="F44" t="n">
-        <v>722.1562313579091</v>
+        <v>319.8065474069725</v>
       </c>
       <c r="G44" t="n">
         <v>319.8065474069725</v>
       </c>
       <c r="H44" t="n">
-        <v>42.3118910305382</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="I44" t="n">
         <v>83.27873986633756</v>
@@ -7666,10 +7666,10 @@
         <v>1609.823844813728</v>
       </c>
       <c r="P44" t="n">
-        <v>1853.006451163901</v>
+        <v>1853.006451163902</v>
       </c>
       <c r="Q44" t="n">
-        <v>2027.798389622784</v>
+        <v>2027.798389622785</v>
       </c>
       <c r="R44" t="n">
         <v>2115.59455152691</v>
@@ -7678,22 +7678,22 @@
         <v>2056.560219048525</v>
       </c>
       <c r="T44" t="n">
-        <v>1844.343152300122</v>
+        <v>2056.560219048525</v>
       </c>
       <c r="U44" t="n">
-        <v>1844.343152300122</v>
+        <v>1798.364459921707</v>
       </c>
       <c r="V44" t="n">
-        <v>1844.343152300122</v>
+        <v>1440.875045047956</v>
       </c>
       <c r="W44" t="n">
-        <v>1844.343152300122</v>
+        <v>1044.483695348303</v>
       </c>
       <c r="X44" t="n">
-        <v>1844.343152300122</v>
+        <v>746.7072773936725</v>
       </c>
       <c r="Y44" t="n">
-        <v>1844.343152300122</v>
+        <v>746.7072773936725</v>
       </c>
     </row>
     <row r="45">
@@ -7709,22 +7709,22 @@
         <v>480.5850948328476</v>
       </c>
       <c r="D45" t="n">
-        <v>376.7451363481326</v>
+        <v>376.7451363481327</v>
       </c>
       <c r="E45" t="n">
-        <v>272.0432026210698</v>
+        <v>272.0432026210699</v>
       </c>
       <c r="F45" t="n">
-        <v>178.397372303974</v>
+        <v>178.3973723039741</v>
       </c>
       <c r="G45" t="n">
-        <v>85.40801183607857</v>
+        <v>85.4080118360786</v>
       </c>
       <c r="H45" t="n">
-        <v>42.3118910305382</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="I45" t="n">
-        <v>62.2194378205584</v>
+        <v>85.67674366497025</v>
       </c>
       <c r="J45" t="n">
         <v>312.9875844198307</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>743.12853508168</v>
+        <v>884.784868276517</v>
       </c>
       <c r="C46" t="n">
-        <v>571.1559719605959</v>
+        <v>712.812305155433</v>
       </c>
       <c r="D46" t="n">
-        <v>407.8391990873666</v>
+        <v>549.4955322822037</v>
       </c>
       <c r="E46" t="n">
-        <v>350.0359826296437</v>
+        <v>383.2873264350573</v>
       </c>
       <c r="F46" t="n">
-        <v>178.1742084042041</v>
+        <v>383.2873264350573</v>
       </c>
       <c r="G46" t="n">
-        <v>178.1742084042041</v>
+        <v>251.1068765627642</v>
       </c>
       <c r="H46" t="n">
-        <v>42.3118910305382</v>
+        <v>115.2445591890983</v>
       </c>
       <c r="I46" t="n">
-        <v>42.3118910305382</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="J46" t="n">
-        <v>161.6380467832711</v>
+        <v>83.71633013505024</v>
       </c>
       <c r="K46" t="n">
-        <v>242.4966554129783</v>
+        <v>164.5749387647575</v>
       </c>
       <c r="L46" t="n">
-        <v>565.2224863700764</v>
+        <v>649.2947048839583</v>
       </c>
       <c r="M46" t="n">
-        <v>679.9716733315644</v>
+        <v>1172.904356386869</v>
       </c>
       <c r="N46" t="n">
-        <v>1191.302151905749</v>
+        <v>1504.058356479057</v>
       </c>
       <c r="O46" t="n">
-        <v>1670.352229719404</v>
+        <v>1983.108434292712</v>
       </c>
       <c r="P46" t="n">
-        <v>2066.731375476995</v>
+        <v>2066.731375476996</v>
       </c>
       <c r="Q46" t="n">
         <v>2115.59455152691</v>
@@ -7836,7 +7836,7 @@
         <v>1961.011021728612</v>
       </c>
       <c r="T46" t="n">
-        <v>1721.484513448933</v>
+        <v>1721.484513448934</v>
       </c>
       <c r="U46" t="n">
         <v>1441.348739495975</v>
@@ -7845,13 +7845,13 @@
         <v>1159.637272104004</v>
       </c>
       <c r="W46" t="n">
-        <v>1159.637272104004</v>
+        <v>884.784868276517</v>
       </c>
       <c r="X46" t="n">
-        <v>1159.637272104004</v>
+        <v>884.784868276517</v>
       </c>
       <c r="Y46" t="n">
-        <v>933.2945037937457</v>
+        <v>884.784868276517</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.53626961840621</v>
+        <v>56.40025708778723</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
@@ -7990,16 +7990,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>65.39593296726571</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>65.69167194305098</v>
       </c>
       <c r="Q2" t="n">
-        <v>63.10497220679875</v>
+        <v>64.24098473741773</v>
       </c>
       <c r="R2" t="n">
         <v>63.14896002761616</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>40.06955035784532</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8066,22 +8066,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>51.21309064514766</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>51.28819985504191</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>48.75113880702937</v>
+        <v>49.88715133764835</v>
       </c>
       <c r="Q3" t="n">
         <v>50.86334842179818</v>
       </c>
       <c r="R3" t="n">
-        <v>51.78922952696383</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>21.91875989570122</v>
       </c>
       <c r="M4" t="n">
-        <v>22.57543989148582</v>
+        <v>50.69175002430551</v>
       </c>
       <c r="N4" t="n">
         <v>47.7291985778011</v>
@@ -8154,7 +8154,7 @@
         <v>22.49918749842445</v>
       </c>
       <c r="P4" t="n">
-        <v>50.49711079080617</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q4" t="n">
         <v>24.61956276478495</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>57.53626961840621</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>65.29234003482364</v>
       </c>
       <c r="M5" t="n">
         <v>65.54757303225151</v>
@@ -8230,7 +8230,7 @@
         <v>65.39593296726571</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>65.50726948884378</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8239,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>62.01294749699718</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>40.06955035784532</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>50.51554396615302</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>50.63139684704925</v>
       </c>
       <c r="M6" t="n">
-        <v>51.21309064514766</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
@@ -8312,13 +8312,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>49.88715133764835</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>42.20547431349048</v>
+        <v>50.86334842179818</v>
       </c>
       <c r="R6" t="n">
-        <v>51.78922952696383</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,19 +8376,19 @@
         <v>48.75306611672156</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>49.08096458553168</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>50.03507002852091</v>
       </c>
       <c r="M7" t="n">
         <v>49.55573749368652</v>
       </c>
       <c r="N7" t="n">
-        <v>48.86521110842008</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O7" t="n">
-        <v>50.61549763124414</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P7" t="n">
         <v>22.38080065798648</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>56.40025708778723</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
@@ -8461,16 +8461,16 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>65.54757303225151</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>64.37125695822481</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>65.69167194305098</v>
       </c>
       <c r="Q8" t="n">
         <v>64.24098473741773</v>
@@ -8531,7 +8531,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>48.72742446615302</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8540,19 +8540,19 @@
         <v>50.63139684704925</v>
       </c>
       <c r="M9" t="n">
-        <v>51.21309064514766</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>49.45933834636135</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>42.63032574673421</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>41.22927722934065</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>50.86334842179818</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8610,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>47.61705358610257</v>
       </c>
       <c r="K10" t="n">
-        <v>47.9449520549127</v>
+        <v>49.08096458553168</v>
       </c>
       <c r="L10" t="n">
-        <v>21.91875989570122</v>
+        <v>50.03507002852091</v>
       </c>
       <c r="M10" t="n">
         <v>50.69175002430551</v>
@@ -8625,13 +8625,13 @@
         <v>20.74890097560039</v>
       </c>
       <c r="O10" t="n">
-        <v>50.61549763124414</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P10" t="n">
         <v>22.38080065798648</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.73587289760464</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>150.6601325884831</v>
+        <v>280.8750882746621</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>98.32011744669657</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
         <v>412.9903682236588</v>
@@ -8862,13 +8862,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>199.5210563850577</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>280.8750882746625</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>280.8750882746626</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>412.9903682236588</v>
+        <v>230.9939253125515</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>98.32011744669691</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>280.8750882746626</v>
+        <v>150.6601325884832</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,19 +9324,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>198.1943586961298</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>412.9903682236588</v>
+        <v>412.9903682236589</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>351.7941005546114</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>257.1808399469739</v>
+        <v>150.6601325884832</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>119.4855540009574</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
         <v>412.9903682236589</v>
@@ -9573,10 +9573,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>199.5210563850578</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>229.237936623377</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>330.3689352649013</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>280.875088274663</v>
+        <v>150.6601325884833</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9807,10 +9807,10 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>297.8591147703678</v>
       </c>
       <c r="O25" t="n">
-        <v>277.3231566504922</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9886,19 +9886,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>423.1755238008412</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>456.6559134694921</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>330.3689352649016</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>280.8750882746631</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>150.6601325884833</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
@@ -10044,7 +10044,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>376.5679194655406</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>48.70817995826566</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>383.0143591261561</v>
       </c>
       <c r="K29" t="n">
-        <v>383.0143591261561</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>150.6601325884837</v>
+        <v>150.6601325884832</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
@@ -10281,7 +10281,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
-        <v>402.0534574160406</v>
+        <v>297.8591147703678</v>
       </c>
       <c r="O31" t="n">
         <v>381.5174992961649</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.4169846534382</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>484.1453577676803</v>
       </c>
       <c r="L32" t="n">
-        <v>269.3991012980621</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>456.6559134694921</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>150.6601325884832</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>280.8750882746631</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,13 +10509,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464869</v>
+        <v>224.2948752959865</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>392.2270685776028</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10664,7 +10664,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>150.6601325884832</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>150.6601325884837</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10746,19 +10746,19 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>85.52069727462502</v>
       </c>
       <c r="O37" t="n">
-        <v>195.3951275154999</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
         <v>315.9153581548562</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>280.8750882746631</v>
+        <v>280.8750882746626</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>198.1943586961301</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>412.9903682236589</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>273.0852958594388</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>150.6601325884832</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>257.1808399469739</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,19 +11220,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>198.1943586961301</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>412.9903682236589</v>
+        <v>412.9903682236588</v>
       </c>
       <c r="N43" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>381.5174992961649</v>
+        <v>351.794100554611</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>174.3543809161719</v>
+        <v>150.6601325884832</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>216.5605640697598</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>412.9903682236589</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>220.0570145049333</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23263,13 +23263,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.44398915360155</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>21.87253094085648</v>
+        <v>210.0948960809187</v>
       </c>
       <c r="U11" t="n">
         <v>255.6138015355503</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>288.4370881592614</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7109569854282</v>
       </c>
       <c r="H13" t="n">
         <v>134.5036941999293</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5750145054988</v>
+        <v>72.20334147697446</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.84541633285658</v>
+        <v>6.845416332856573</v>
       </c>
       <c r="S13" t="n">
-        <v>153.0376945003153</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1312431968815</v>
+        <v>150.3701024016039</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3261871114271</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>49.22878504204061</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.44398915360156</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>133.1605677522475</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>108.4444454118365</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.20334147697446</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3344162134288</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>233.8357378561811</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23740,16 +23740,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3261871114271</v>
+        <v>284.8062648956871</v>
       </c>
       <c r="H17" t="n">
-        <v>274.7197098126699</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.44398915360156</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>135.4054379926019</v>
+        <v>210.0948960809187</v>
       </c>
       <c r="U17" t="n">
         <v>255.6138015355503</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>133.8634539421498</v>
+        <v>163.7109569854282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.5036941999293</v>
       </c>
       <c r="I19" t="n">
         <v>72.20334147697446</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.84541633285658</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>153.0376945003153</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>50.02425900421721</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3344162134288</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>105.8255636506051</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.3261871114271</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.44398915360156</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>77.18840827807628</v>
+        <v>210.0948960809187</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6138015355503</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -24034,7 +24034,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7109569854282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>42.35583843369565</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.84541633285658</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>153.0376945003153</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>126.0013136636329</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>398.3261871114271</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>116.8142684423518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.857607466721504</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>29.48085923531124</v>
       </c>
       <c r="F26" t="n">
-        <v>213.5683615732897</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3261871114271</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.7197098126699</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0948960809187</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6138015355503</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.44398915360156</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>210.0948960809187</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6138015355503</v>
+        <v>218.5525602488485</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>329.7269268674472</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3261871114271</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.7197098126699</v>
+        <v>143.7169666517618</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.44398915360156</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>106.0334388850735</v>
+        <v>210.0948960809187</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6138015355503</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25159,7 +25159,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>193.5005134111382</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -25210,16 +25210,16 @@
         <v>210.0948960809187</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6138015355503</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>41.51151610275832</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>6.930661871635721</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7109569854282</v>
+        <v>27.76725434918899</v>
       </c>
       <c r="H37" t="n">
         <v>134.5036941999293</v>
       </c>
       <c r="I37" t="n">
-        <v>72.20334147697446</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.84541633285658</v>
       </c>
       <c r="S37" t="n">
-        <v>153.0376945003153</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>79.19330524641197</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>175.724716148947</v>
+        <v>398.3261871114271</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.7197098126699</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.44398915360156</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>210.0948960809187</v>
@@ -25450,16 +25450,16 @@
         <v>255.6138015355503</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7109569854282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>134.5036941999293</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>153.0376945003153</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1312431968815</v>
+        <v>213.3250595106068</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>12.25559764160204</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3261871114271</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.7197098126699</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.0948960809187</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>77.46906558805904</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>88.49860949344071</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>68.96277954029141</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.84541633285658</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1312431968815</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3344162134288</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>32.74263060517055</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25873,13 +25873,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>154.2567814001569</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3261871114271</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.0948960809187</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6138015355503</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>112.8041450688461</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>107.3209394955293</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7109569854282</v>
+        <v>32.85231161185814</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.20334147697446</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>363238.3271743249</v>
+        <v>363238.3271743251</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>363238.3271743249</v>
+        <v>363238.3271743251</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>363238.3271743249</v>
+        <v>363238.327174325</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>486711.0723370417</v>
+        <v>486711.0723370416</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>486711.0723370417</v>
+        <v>486711.0723370416</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>486711.0723370417</v>
+        <v>486711.0723370416</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>486711.0723370417</v>
+        <v>486711.0723370416</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>363238.3271743251</v>
+        <v>363238.3271743249</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>363238.3271743251</v>
+        <v>363238.3271743249</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>363238.3271743249</v>
+        <v>363238.327174325</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422270.9343080933</v>
+        <v>422270.9343080932</v>
       </c>
       <c r="C2" t="n">
-        <v>422270.9343080931</v>
+        <v>422270.9343080932</v>
       </c>
       <c r="D2" t="n">
-        <v>422270.934308093</v>
+        <v>422270.9343080932</v>
       </c>
       <c r="E2" t="n">
-        <v>245689.5512325069</v>
+        <v>245689.551232507</v>
       </c>
       <c r="F2" t="n">
-        <v>245689.5512325069</v>
+        <v>245689.551232507</v>
       </c>
       <c r="G2" t="n">
         <v>245689.5512325069</v>
@@ -26334,16 +26334,16 @@
         <v>245689.5512325069</v>
       </c>
       <c r="I2" t="n">
-        <v>310458.6161147395</v>
+        <v>310458.6161147396</v>
       </c>
       <c r="J2" t="n">
-        <v>310458.6161147396</v>
+        <v>310458.6161147394</v>
       </c>
       <c r="K2" t="n">
-        <v>310458.6161147396</v>
+        <v>310458.6161147397</v>
       </c>
       <c r="L2" t="n">
-        <v>310458.6161147396</v>
+        <v>310458.6161147394</v>
       </c>
       <c r="M2" t="n">
         <v>245689.5512325069</v>
@@ -26355,7 +26355,7 @@
         <v>245689.5512325069</v>
       </c>
       <c r="P2" t="n">
-        <v>245689.5512325069</v>
+        <v>245689.551232507</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640955</v>
+        <v>9422.422200640931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>543117.1975751776</v>
+        <v>543117.1975751778</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>59088.26506991339</v>
       </c>
       <c r="J3" t="n">
-        <v>7356.463848391474</v>
+        <v>7356.463848391464</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>69423.25043939491</v>
+        <v>69423.25043939475</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,22 +26438,22 @@
         <v>16323.49203601389</v>
       </c>
       <c r="I4" t="n">
+        <v>48362.90575678796</v>
+      </c>
+      <c r="J4" t="n">
         <v>48362.90575678798</v>
       </c>
-      <c r="J4" t="n">
-        <v>48362.90575678799</v>
-      </c>
       <c r="K4" t="n">
-        <v>48362.90575678798</v>
+        <v>48362.90575678797</v>
       </c>
       <c r="L4" t="n">
-        <v>48362.90575678799</v>
+        <v>48362.90575678796</v>
       </c>
       <c r="M4" t="n">
-        <v>16323.4920360139</v>
+        <v>16323.49203601389</v>
       </c>
       <c r="N4" t="n">
-        <v>16323.4920360139</v>
+        <v>16323.49203601389</v>
       </c>
       <c r="O4" t="n">
         <v>16323.49203601389</v>
@@ -26478,13 +26478,13 @@
         <v>35337.07165607544</v>
       </c>
       <c r="E5" t="n">
-        <v>42837.06020466688</v>
+        <v>42837.06020466689</v>
       </c>
       <c r="F5" t="n">
-        <v>42837.06020466688</v>
+        <v>42837.06020466689</v>
       </c>
       <c r="G5" t="n">
-        <v>42837.06020466688</v>
+        <v>42837.06020466689</v>
       </c>
       <c r="H5" t="n">
         <v>42837.06020466689</v>
@@ -26508,10 +26508,10 @@
         <v>42837.06020466689</v>
       </c>
       <c r="O5" t="n">
+        <v>42837.06020466688</v>
+      </c>
+      <c r="P5" t="n">
         <v>42837.06020466689</v>
-      </c>
-      <c r="P5" t="n">
-        <v>42837.06020466688</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57121.45623547351</v>
+        <v>57121.45623547332</v>
       </c>
       <c r="C6" t="n">
-        <v>66543.87843611423</v>
+        <v>66543.87843611433</v>
       </c>
       <c r="D6" t="n">
-        <v>66543.87843611423</v>
+        <v>66543.87843611433</v>
       </c>
       <c r="E6" t="n">
-        <v>-356588.1985833515</v>
+        <v>-357197.0999043018</v>
       </c>
       <c r="F6" t="n">
-        <v>186528.9989918261</v>
+        <v>185920.0976708759</v>
       </c>
       <c r="G6" t="n">
-        <v>186528.9989918262</v>
+        <v>185920.0976708759</v>
       </c>
       <c r="H6" t="n">
-        <v>186528.9989918261</v>
+        <v>185920.0976708758</v>
       </c>
       <c r="I6" t="n">
-        <v>146660.4835853672</v>
+        <v>146274.9238674592</v>
       </c>
       <c r="J6" t="n">
-        <v>198392.2848068892</v>
+        <v>198006.7250889809</v>
       </c>
       <c r="K6" t="n">
-        <v>205748.7486552807</v>
+        <v>205363.1889373727</v>
       </c>
       <c r="L6" t="n">
-        <v>205748.7486552807</v>
+        <v>205363.1889373724</v>
       </c>
       <c r="M6" t="n">
-        <v>117105.7485524312</v>
+        <v>116496.8472314811</v>
       </c>
       <c r="N6" t="n">
-        <v>186528.9989918262</v>
+        <v>185920.0976708759</v>
       </c>
       <c r="O6" t="n">
-        <v>186528.9989918261</v>
+        <v>185920.0976708758</v>
       </c>
       <c r="P6" t="n">
-        <v>186528.9989918262</v>
+        <v>185920.0976708759</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>489.9093129109104</v>
+        <v>489.9093129109105</v>
       </c>
       <c r="F3" t="n">
         <v>489.9093129109104</v>
@@ -26758,22 +26758,22 @@
         <v>489.9093129109104</v>
       </c>
       <c r="I3" t="n">
-        <v>489.9093129109103</v>
+        <v>489.9093129109104</v>
       </c>
       <c r="J3" t="n">
-        <v>489.9093129109103</v>
+        <v>489.9093129109104</v>
       </c>
       <c r="K3" t="n">
-        <v>489.9093129109103</v>
+        <v>489.9093129109104</v>
       </c>
       <c r="L3" t="n">
-        <v>489.9093129109103</v>
+        <v>489.9093129109104</v>
       </c>
       <c r="M3" t="n">
-        <v>489.9093129109103</v>
+        <v>489.9093129109104</v>
       </c>
       <c r="N3" t="n">
-        <v>489.9093129109103</v>
+        <v>489.9093129109104</v>
       </c>
       <c r="O3" t="n">
         <v>489.9093129109104</v>
@@ -26798,13 +26798,13 @@
         <v>28.11631013281968</v>
       </c>
       <c r="E4" t="n">
-        <v>528.8986378817275</v>
+        <v>528.8986378817276</v>
       </c>
       <c r="F4" t="n">
-        <v>528.8986378817275</v>
+        <v>528.8986378817276</v>
       </c>
       <c r="G4" t="n">
-        <v>528.8986378817275</v>
+        <v>528.8986378817276</v>
       </c>
       <c r="H4" t="n">
         <v>528.8986378817276</v>
@@ -26828,10 +26828,10 @@
         <v>528.8986378817276</v>
       </c>
       <c r="O4" t="n">
+        <v>528.8986378817275</v>
+      </c>
+      <c r="P4" t="n">
         <v>528.8986378817276</v>
-      </c>
-      <c r="P4" t="n">
-        <v>528.8986378817275</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>489.9093129109104</v>
+        <v>489.9093129109105</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>500.7823277489078</v>
+        <v>500.782327748908</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>222.2023272698034</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>28.11631013281965</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>278.5800004791051</v>
+        <v>278.5800004791045</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>500.7823277489078</v>
+        <v>500.782327748908</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27466,16 +27466,16 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897921</v>
+        <v>78.89006842480458</v>
       </c>
       <c r="F3" t="n">
-        <v>92.70937201392488</v>
+        <v>64.5930618811052</v>
       </c>
       <c r="G3" t="n">
         <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>24.72602217249382</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>52.39469483153834</v>
       </c>
       <c r="T3" t="n">
-        <v>112.3448262124788</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>154.80420398674</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>178.1585615071388</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>133.726262638184</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
         <v>138.2959597602405</v>
@@ -27545,19 +27545,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>136.4298136558553</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>136.4780898758905</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>70.65457244430709</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>18.4519170468789</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>140.3173868732368</v>
       </c>
       <c r="T4" t="n">
-        <v>216.1411083313714</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>252.6177580497112</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -27703,13 +27703,13 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>78.89006842480455</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>64.5930618811052</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>64.99692393175235</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
         <v>24.72602217249382</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>80.51100496435802</v>
+        <v>52.39469483153834</v>
       </c>
       <c r="T6" t="n">
-        <v>140.4611363452985</v>
+        <v>112.3448262124788</v>
       </c>
       <c r="U6" t="n">
-        <v>182.9205141195597</v>
+        <v>158.1556681545721</v>
       </c>
       <c r="V6" t="n">
         <v>202.9234074721264</v>
@@ -27776,10 +27776,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>142.1365273570535</v>
       </c>
       <c r="D7" t="n">
-        <v>136.9187591795094</v>
+        <v>133.5672950116773</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -27788,7 +27788,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>136.4780898758905</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>18.4519170468789</v>
+        <v>21.803381214711</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -27839,10 +27839,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>212.0219474558332</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>195.9630304943357</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27940,10 +27940,10 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E9" t="n">
-        <v>78.89006842480458</v>
+        <v>78.89006842480455</v>
       </c>
       <c r="F9" t="n">
-        <v>92.70937201392488</v>
+        <v>64.5930618811052</v>
       </c>
       <c r="G9" t="n">
         <v>64.99692393175235</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>52.39469483153834</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T9" t="n">
         <v>140.4611363452985</v>
@@ -28013,10 +28013,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>145.4879915248856</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>133.5672950116773</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -28025,13 +28025,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>136.4780898758905</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2419956741075</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>74.00603661213921</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>18.4519170468789</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -31755,13 +31755,13 @@
         <v>1.969484675018734</v>
       </c>
       <c r="H11" t="n">
-        <v>20.16998492803561</v>
+        <v>20.16998492803562</v>
       </c>
       <c r="I11" t="n">
         <v>75.92855793365982</v>
       </c>
       <c r="J11" t="n">
-        <v>167.1575499363714</v>
+        <v>167.1575499363715</v>
       </c>
       <c r="K11" t="n">
         <v>250.5258362299145</v>
@@ -31770,28 +31770,28 @@
         <v>310.7994528530191</v>
       </c>
       <c r="M11" t="n">
-        <v>345.8242759423835</v>
+        <v>345.8242759423836</v>
       </c>
       <c r="N11" t="n">
-        <v>351.4200742752805</v>
+        <v>351.4200742752806</v>
       </c>
       <c r="O11" t="n">
         <v>331.836011038063</v>
       </c>
       <c r="P11" t="n">
-        <v>283.2143581235379</v>
+        <v>283.214358123538</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.6821881994294</v>
+        <v>212.6821881994295</v>
       </c>
       <c r="R11" t="n">
         <v>123.7156417171457</v>
       </c>
       <c r="S11" t="n">
-        <v>44.87963203198944</v>
+        <v>44.87963203198945</v>
       </c>
       <c r="T11" t="n">
-        <v>8.621419164894512</v>
+        <v>8.621419164894514</v>
       </c>
       <c r="U11" t="n">
         <v>0.1575587740014987</v>
@@ -31837,10 +31837,10 @@
         <v>10.17717270782854</v>
       </c>
       <c r="I12" t="n">
-        <v>36.28101987123252</v>
+        <v>36.28101987123253</v>
       </c>
       <c r="J12" t="n">
-        <v>99.55789159824457</v>
+        <v>99.55789159824458</v>
       </c>
       <c r="K12" t="n">
         <v>170.160294089066</v>
@@ -31849,7 +31849,7 @@
         <v>228.8015144873078</v>
       </c>
       <c r="M12" t="n">
-        <v>267.0005755364461</v>
+        <v>267.0005755364462</v>
       </c>
       <c r="N12" t="n">
         <v>274.0672862858876</v>
@@ -31864,7 +31864,7 @@
         <v>134.512458895841</v>
       </c>
       <c r="R12" t="n">
-        <v>65.42600220346085</v>
+        <v>65.42600220346087</v>
       </c>
       <c r="S12" t="n">
         <v>19.57326358658212</v>
@@ -31873,7 +31873,7 @@
         <v>4.247421307218175</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06932678956286471</v>
+        <v>0.06932678956286473</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8834430232819696</v>
+        <v>0.8834430232819697</v>
       </c>
       <c r="H13" t="n">
-        <v>7.854611606997881</v>
+        <v>7.854611606997882</v>
       </c>
       <c r="I13" t="n">
         <v>26.56754110015233</v>
@@ -31925,10 +31925,10 @@
         <v>102.6400167049415</v>
       </c>
       <c r="L13" t="n">
-        <v>131.3438836613939</v>
+        <v>131.343883661394</v>
       </c>
       <c r="M13" t="n">
-        <v>138.4837095495545</v>
+        <v>138.4837095495546</v>
       </c>
       <c r="N13" t="n">
         <v>135.1908764627764</v>
@@ -31943,13 +31943,13 @@
         <v>73.97630624954748</v>
       </c>
       <c r="R13" t="n">
-        <v>39.722810846842</v>
+        <v>39.72281084684201</v>
       </c>
       <c r="S13" t="n">
         <v>15.39600250574123</v>
       </c>
       <c r="T13" t="n">
-        <v>3.774711099477505</v>
+        <v>3.774711099477506</v>
       </c>
       <c r="U13" t="n">
         <v>0.04818780126992567</v>
@@ -31995,7 +31995,7 @@
         <v>20.16998492803561</v>
       </c>
       <c r="I14" t="n">
-        <v>75.9285579336598</v>
+        <v>75.92855793365982</v>
       </c>
       <c r="J14" t="n">
         <v>167.1575499363714</v>
@@ -32013,7 +32013,7 @@
         <v>351.4200742752805</v>
       </c>
       <c r="O14" t="n">
-        <v>331.8360110380629</v>
+        <v>331.836011038063</v>
       </c>
       <c r="P14" t="n">
         <v>283.2143581235379</v>
@@ -32022,7 +32022,7 @@
         <v>212.6821881994294</v>
       </c>
       <c r="R14" t="n">
-        <v>123.7156417171456</v>
+        <v>123.7156417171457</v>
       </c>
       <c r="S14" t="n">
         <v>44.87963203198944</v>
@@ -32077,19 +32077,19 @@
         <v>36.28101987123252</v>
       </c>
       <c r="J15" t="n">
-        <v>99.55789159824455</v>
+        <v>99.55789159824457</v>
       </c>
       <c r="K15" t="n">
-        <v>170.1602940890659</v>
+        <v>170.160294089066</v>
       </c>
       <c r="L15" t="n">
-        <v>228.8015144873077</v>
+        <v>228.8015144873078</v>
       </c>
       <c r="M15" t="n">
         <v>267.0005755364461</v>
       </c>
       <c r="N15" t="n">
-        <v>274.0672862858875</v>
+        <v>274.0672862858876</v>
       </c>
       <c r="O15" t="n">
         <v>250.7180235611147</v>
@@ -32098,7 +32098,7 @@
         <v>201.2233175992002</v>
       </c>
       <c r="Q15" t="n">
-        <v>134.5124588958409</v>
+        <v>134.512458895841</v>
       </c>
       <c r="R15" t="n">
         <v>65.42600220346085</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8834430232819694</v>
+        <v>0.8834430232819696</v>
       </c>
       <c r="H16" t="n">
-        <v>7.85461160699788</v>
+        <v>7.854611606997881</v>
       </c>
       <c r="I16" t="n">
         <v>26.56754110015233</v>
       </c>
       <c r="J16" t="n">
-        <v>62.45942174603524</v>
+        <v>62.45942174603525</v>
       </c>
       <c r="K16" t="n">
         <v>102.6400167049415</v>
@@ -32174,10 +32174,10 @@
         <v>124.8706556908006</v>
       </c>
       <c r="P16" t="n">
-        <v>106.8484180158483</v>
+        <v>106.8484180158484</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.97630624954746</v>
+        <v>73.97630624954748</v>
       </c>
       <c r="R16" t="n">
         <v>39.722810846842</v>
@@ -32189,7 +32189,7 @@
         <v>3.774711099477505</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04818780126992566</v>
+        <v>0.04818780126992567</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32712,10 +32712,10 @@
         <v>167.1575499363714</v>
       </c>
       <c r="K23" t="n">
-        <v>250.5258362299144</v>
+        <v>250.5258362299145</v>
       </c>
       <c r="L23" t="n">
-        <v>310.799452853019</v>
+        <v>310.7994528530191</v>
       </c>
       <c r="M23" t="n">
         <v>345.8242759423835</v>
@@ -32739,10 +32739,10 @@
         <v>44.87963203198944</v>
       </c>
       <c r="T23" t="n">
-        <v>8.62141916489451</v>
+        <v>8.621419164894512</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1575587740014986</v>
+        <v>0.1575587740014987</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,7 +32788,7 @@
         <v>36.28101987123252</v>
       </c>
       <c r="J24" t="n">
-        <v>99.55789159824454</v>
+        <v>99.55789159824455</v>
       </c>
       <c r="K24" t="n">
         <v>170.1602940890659</v>
@@ -32803,7 +32803,7 @@
         <v>274.0672862858875</v>
       </c>
       <c r="O24" t="n">
-        <v>250.7180235611146</v>
+        <v>250.7180235611147</v>
       </c>
       <c r="P24" t="n">
         <v>201.2233175992002</v>
@@ -32812,16 +32812,16 @@
         <v>134.5124588958409</v>
       </c>
       <c r="R24" t="n">
-        <v>65.42600220346084</v>
+        <v>65.42600220346085</v>
       </c>
       <c r="S24" t="n">
-        <v>19.57326358658211</v>
+        <v>19.57326358658212</v>
       </c>
       <c r="T24" t="n">
-        <v>4.247421307218174</v>
+        <v>4.247421307218175</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0693267895628647</v>
+        <v>0.06932678956286471</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8834430232819693</v>
+        <v>0.8834430232819694</v>
       </c>
       <c r="H25" t="n">
-        <v>7.854611606997879</v>
+        <v>7.85461160699788</v>
       </c>
       <c r="I25" t="n">
-        <v>26.56754110015232</v>
+        <v>26.56754110015233</v>
       </c>
       <c r="J25" t="n">
-        <v>62.45942174603523</v>
+        <v>62.45942174603524</v>
       </c>
       <c r="K25" t="n">
         <v>102.6400167049415</v>
@@ -32891,16 +32891,16 @@
         <v>73.97630624954746</v>
       </c>
       <c r="R25" t="n">
-        <v>39.72281084684199</v>
+        <v>39.722810846842</v>
       </c>
       <c r="S25" t="n">
-        <v>15.39600250574122</v>
+        <v>15.39600250574123</v>
       </c>
       <c r="T25" t="n">
-        <v>3.774711099477504</v>
+        <v>3.774711099477505</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04818780126992565</v>
+        <v>0.04818780126992566</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32949,10 +32949,10 @@
         <v>167.1575499363714</v>
       </c>
       <c r="K26" t="n">
-        <v>250.5258362299144</v>
+        <v>250.5258362299145</v>
       </c>
       <c r="L26" t="n">
-        <v>310.799452853019</v>
+        <v>310.7994528530191</v>
       </c>
       <c r="M26" t="n">
         <v>345.8242759423835</v>
@@ -32976,10 +32976,10 @@
         <v>44.87963203198944</v>
       </c>
       <c r="T26" t="n">
-        <v>8.62141916489451</v>
+        <v>8.621419164894512</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1575587740014986</v>
+        <v>0.1575587740014987</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,7 +33025,7 @@
         <v>36.28101987123252</v>
       </c>
       <c r="J27" t="n">
-        <v>99.55789159824454</v>
+        <v>99.55789159824455</v>
       </c>
       <c r="K27" t="n">
         <v>170.1602940890659</v>
@@ -33040,7 +33040,7 @@
         <v>274.0672862858875</v>
       </c>
       <c r="O27" t="n">
-        <v>250.7180235611146</v>
+        <v>250.7180235611147</v>
       </c>
       <c r="P27" t="n">
         <v>201.2233175992002</v>
@@ -33049,16 +33049,16 @@
         <v>134.5124588958409</v>
       </c>
       <c r="R27" t="n">
-        <v>65.42600220346084</v>
+        <v>65.42600220346085</v>
       </c>
       <c r="S27" t="n">
-        <v>19.57326358658211</v>
+        <v>19.57326358658212</v>
       </c>
       <c r="T27" t="n">
-        <v>4.247421307218174</v>
+        <v>4.247421307218175</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0693267895628647</v>
+        <v>0.06932678956286471</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8834430232819693</v>
+        <v>0.8834430232819694</v>
       </c>
       <c r="H28" t="n">
-        <v>7.854611606997879</v>
+        <v>7.85461160699788</v>
       </c>
       <c r="I28" t="n">
-        <v>26.56754110015232</v>
+        <v>26.56754110015233</v>
       </c>
       <c r="J28" t="n">
-        <v>62.45942174603523</v>
+        <v>62.45942174603524</v>
       </c>
       <c r="K28" t="n">
         <v>102.6400167049415</v>
@@ -33128,16 +33128,16 @@
         <v>73.97630624954746</v>
       </c>
       <c r="R28" t="n">
-        <v>39.72281084684199</v>
+        <v>39.722810846842</v>
       </c>
       <c r="S28" t="n">
-        <v>15.39600250574122</v>
+        <v>15.39600250574123</v>
       </c>
       <c r="T28" t="n">
-        <v>3.774711099477504</v>
+        <v>3.774711099477505</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04818780126992565</v>
+        <v>0.04818780126992566</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33186,10 +33186,10 @@
         <v>167.1575499363714</v>
       </c>
       <c r="K29" t="n">
-        <v>250.5258362299144</v>
+        <v>250.5258362299145</v>
       </c>
       <c r="L29" t="n">
-        <v>310.799452853019</v>
+        <v>310.7994528530191</v>
       </c>
       <c r="M29" t="n">
         <v>345.8242759423835</v>
@@ -33213,10 +33213,10 @@
         <v>44.87963203198944</v>
       </c>
       <c r="T29" t="n">
-        <v>8.62141916489451</v>
+        <v>8.621419164894512</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1575587740014986</v>
+        <v>0.1575587740014987</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,7 +33262,7 @@
         <v>36.28101987123252</v>
       </c>
       <c r="J30" t="n">
-        <v>99.55789159824454</v>
+        <v>99.55789159824455</v>
       </c>
       <c r="K30" t="n">
         <v>170.1602940890659</v>
@@ -33277,7 +33277,7 @@
         <v>274.0672862858875</v>
       </c>
       <c r="O30" t="n">
-        <v>250.7180235611146</v>
+        <v>250.7180235611147</v>
       </c>
       <c r="P30" t="n">
         <v>201.2233175992002</v>
@@ -33286,16 +33286,16 @@
         <v>134.5124588958409</v>
       </c>
       <c r="R30" t="n">
-        <v>65.42600220346084</v>
+        <v>65.42600220346085</v>
       </c>
       <c r="S30" t="n">
-        <v>19.57326358658211</v>
+        <v>19.57326358658212</v>
       </c>
       <c r="T30" t="n">
-        <v>4.247421307218174</v>
+        <v>4.247421307218175</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0693267895628647</v>
+        <v>0.06932678956286471</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8834430232819693</v>
+        <v>0.8834430232819694</v>
       </c>
       <c r="H31" t="n">
-        <v>7.854611606997879</v>
+        <v>7.85461160699788</v>
       </c>
       <c r="I31" t="n">
-        <v>26.56754110015232</v>
+        <v>26.56754110015233</v>
       </c>
       <c r="J31" t="n">
-        <v>62.45942174603523</v>
+        <v>62.45942174603524</v>
       </c>
       <c r="K31" t="n">
         <v>102.6400167049415</v>
@@ -33365,16 +33365,16 @@
         <v>73.97630624954746</v>
       </c>
       <c r="R31" t="n">
-        <v>39.72281084684199</v>
+        <v>39.722810846842</v>
       </c>
       <c r="S31" t="n">
-        <v>15.39600250574122</v>
+        <v>15.39600250574123</v>
       </c>
       <c r="T31" t="n">
-        <v>3.774711099477504</v>
+        <v>3.774711099477505</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04818780126992565</v>
+        <v>0.04818780126992566</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33423,10 +33423,10 @@
         <v>167.1575499363714</v>
       </c>
       <c r="K32" t="n">
-        <v>250.5258362299144</v>
+        <v>250.5258362299145</v>
       </c>
       <c r="L32" t="n">
-        <v>310.799452853019</v>
+        <v>310.7994528530191</v>
       </c>
       <c r="M32" t="n">
         <v>345.8242759423835</v>
@@ -33450,10 +33450,10 @@
         <v>44.87963203198944</v>
       </c>
       <c r="T32" t="n">
-        <v>8.62141916489451</v>
+        <v>8.621419164894512</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1575587740014986</v>
+        <v>0.1575587740014987</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,7 +33499,7 @@
         <v>36.28101987123252</v>
       </c>
       <c r="J33" t="n">
-        <v>99.55789159824454</v>
+        <v>99.55789159824455</v>
       </c>
       <c r="K33" t="n">
         <v>170.1602940890659</v>
@@ -33514,7 +33514,7 @@
         <v>274.0672862858875</v>
       </c>
       <c r="O33" t="n">
-        <v>250.7180235611146</v>
+        <v>250.7180235611147</v>
       </c>
       <c r="P33" t="n">
         <v>201.2233175992002</v>
@@ -33523,16 +33523,16 @@
         <v>134.5124588958409</v>
       </c>
       <c r="R33" t="n">
-        <v>65.42600220346084</v>
+        <v>65.42600220346085</v>
       </c>
       <c r="S33" t="n">
-        <v>19.57326358658211</v>
+        <v>19.57326358658212</v>
       </c>
       <c r="T33" t="n">
-        <v>4.247421307218174</v>
+        <v>4.247421307218175</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0693267895628647</v>
+        <v>0.06932678956286471</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8834430232819693</v>
+        <v>0.8834430232819694</v>
       </c>
       <c r="H34" t="n">
-        <v>7.854611606997879</v>
+        <v>7.85461160699788</v>
       </c>
       <c r="I34" t="n">
-        <v>26.56754110015232</v>
+        <v>26.56754110015233</v>
       </c>
       <c r="J34" t="n">
-        <v>62.45942174603523</v>
+        <v>62.45942174603524</v>
       </c>
       <c r="K34" t="n">
         <v>102.6400167049415</v>
@@ -33602,16 +33602,16 @@
         <v>73.97630624954746</v>
       </c>
       <c r="R34" t="n">
-        <v>39.72281084684199</v>
+        <v>39.722810846842</v>
       </c>
       <c r="S34" t="n">
-        <v>15.39600250574122</v>
+        <v>15.39600250574123</v>
       </c>
       <c r="T34" t="n">
-        <v>3.774711099477504</v>
+        <v>3.774711099477505</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04818780126992565</v>
+        <v>0.04818780126992566</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33660,10 +33660,10 @@
         <v>167.1575499363714</v>
       </c>
       <c r="K35" t="n">
-        <v>250.5258362299144</v>
+        <v>250.5258362299145</v>
       </c>
       <c r="L35" t="n">
-        <v>310.799452853019</v>
+        <v>310.7994528530191</v>
       </c>
       <c r="M35" t="n">
         <v>345.8242759423835</v>
@@ -33687,10 +33687,10 @@
         <v>44.87963203198944</v>
       </c>
       <c r="T35" t="n">
-        <v>8.62141916489451</v>
+        <v>8.621419164894512</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1575587740014986</v>
+        <v>0.1575587740014987</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,7 +33736,7 @@
         <v>36.28101987123252</v>
       </c>
       <c r="J36" t="n">
-        <v>99.55789159824454</v>
+        <v>99.55789159824455</v>
       </c>
       <c r="K36" t="n">
         <v>170.1602940890659</v>
@@ -33751,7 +33751,7 @@
         <v>274.0672862858875</v>
       </c>
       <c r="O36" t="n">
-        <v>250.7180235611146</v>
+        <v>250.7180235611147</v>
       </c>
       <c r="P36" t="n">
         <v>201.2233175992002</v>
@@ -33760,16 +33760,16 @@
         <v>134.5124588958409</v>
       </c>
       <c r="R36" t="n">
-        <v>65.42600220346084</v>
+        <v>65.42600220346085</v>
       </c>
       <c r="S36" t="n">
-        <v>19.57326358658211</v>
+        <v>19.57326358658212</v>
       </c>
       <c r="T36" t="n">
-        <v>4.247421307218174</v>
+        <v>4.247421307218175</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0693267895628647</v>
+        <v>0.06932678956286471</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8834430232819693</v>
+        <v>0.8834430232819694</v>
       </c>
       <c r="H37" t="n">
-        <v>7.854611606997879</v>
+        <v>7.85461160699788</v>
       </c>
       <c r="I37" t="n">
-        <v>26.56754110015232</v>
+        <v>26.56754110015233</v>
       </c>
       <c r="J37" t="n">
-        <v>62.45942174603523</v>
+        <v>62.45942174603524</v>
       </c>
       <c r="K37" t="n">
         <v>102.6400167049415</v>
@@ -33839,16 +33839,16 @@
         <v>73.97630624954746</v>
       </c>
       <c r="R37" t="n">
-        <v>39.72281084684199</v>
+        <v>39.722810846842</v>
       </c>
       <c r="S37" t="n">
-        <v>15.39600250574122</v>
+        <v>15.39600250574123</v>
       </c>
       <c r="T37" t="n">
-        <v>3.774711099477504</v>
+        <v>3.774711099477505</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04818780126992565</v>
+        <v>0.04818780126992566</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33897,10 +33897,10 @@
         <v>167.1575499363714</v>
       </c>
       <c r="K38" t="n">
-        <v>250.5258362299144</v>
+        <v>250.5258362299145</v>
       </c>
       <c r="L38" t="n">
-        <v>310.799452853019</v>
+        <v>310.7994528530191</v>
       </c>
       <c r="M38" t="n">
         <v>345.8242759423835</v>
@@ -33924,10 +33924,10 @@
         <v>44.87963203198944</v>
       </c>
       <c r="T38" t="n">
-        <v>8.62141916489451</v>
+        <v>8.621419164894512</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1575587740014986</v>
+        <v>0.1575587740014987</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,7 +33973,7 @@
         <v>36.28101987123252</v>
       </c>
       <c r="J39" t="n">
-        <v>99.55789159824454</v>
+        <v>99.55789159824455</v>
       </c>
       <c r="K39" t="n">
         <v>170.1602940890659</v>
@@ -33988,7 +33988,7 @@
         <v>274.0672862858875</v>
       </c>
       <c r="O39" t="n">
-        <v>250.7180235611146</v>
+        <v>250.7180235611147</v>
       </c>
       <c r="P39" t="n">
         <v>201.2233175992002</v>
@@ -33997,16 +33997,16 @@
         <v>134.5124588958409</v>
       </c>
       <c r="R39" t="n">
-        <v>65.42600220346084</v>
+        <v>65.42600220346085</v>
       </c>
       <c r="S39" t="n">
-        <v>19.57326358658211</v>
+        <v>19.57326358658212</v>
       </c>
       <c r="T39" t="n">
-        <v>4.247421307218174</v>
+        <v>4.247421307218175</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0693267895628647</v>
+        <v>0.06932678956286471</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8834430232819693</v>
+        <v>0.8834430232819694</v>
       </c>
       <c r="H40" t="n">
-        <v>7.854611606997879</v>
+        <v>7.85461160699788</v>
       </c>
       <c r="I40" t="n">
-        <v>26.56754110015232</v>
+        <v>26.56754110015233</v>
       </c>
       <c r="J40" t="n">
-        <v>62.45942174603523</v>
+        <v>62.45942174603524</v>
       </c>
       <c r="K40" t="n">
         <v>102.6400167049415</v>
@@ -34076,16 +34076,16 @@
         <v>73.97630624954746</v>
       </c>
       <c r="R40" t="n">
-        <v>39.72281084684199</v>
+        <v>39.722810846842</v>
       </c>
       <c r="S40" t="n">
-        <v>15.39600250574122</v>
+        <v>15.39600250574123</v>
       </c>
       <c r="T40" t="n">
-        <v>3.774711099477504</v>
+        <v>3.774711099477505</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04818780126992565</v>
+        <v>0.04818780126992566</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>26.98029760220071</v>
       </c>
       <c r="R2" t="n">
         <v>28.11631013281968</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>19.45843602451198</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,22 +34786,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="P3" t="n">
-        <v>26.98029760220071</v>
       </c>
       <c r="Q3" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="R3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,7 +34865,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="N4" t="n">
         <v>26.98029760220071</v>
@@ -34874,7 +34874,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="M5" t="n">
         <v>28.11631013281968</v>
@@ -34950,7 +34950,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>19.45843602451198</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>19.45843602451199</v>
-      </c>
       <c r="R6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35096,19 +35096,19 @@
         <v>28.11631013281968</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="M7" t="n">
         <v>26.98029760220071</v>
       </c>
       <c r="N7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>26.98029760220071</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>28.11631013281968</v>
@@ -35251,7 +35251,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>28.11631013281968</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>19.45843602451199</v>
+      </c>
+      <c r="Q9" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="N9" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="O9" t="n">
-        <v>19.45843602451199</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="K10" t="n">
-        <v>26.98029760220071</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="M10" t="n">
         <v>28.11631013281968</v>
@@ -35345,13 +35345,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35421,19 +35421,19 @@
         <v>308.3930130429517</v>
       </c>
       <c r="N11" t="n">
-        <v>314.1404514408345</v>
+        <v>314.1404514408346</v>
       </c>
       <c r="O11" t="n">
         <v>294.4450516820389</v>
       </c>
       <c r="P11" t="n">
-        <v>245.6389963133066</v>
+        <v>245.6389963133067</v>
       </c>
       <c r="Q11" t="n">
         <v>176.5575135948314</v>
       </c>
       <c r="R11" t="n">
-        <v>88.68299182234918</v>
+        <v>88.68299182234921</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>43.80288144892126</v>
+        <v>20.10863312123253</v>
       </c>
       <c r="J12" t="n">
-        <v>78.94677726491123</v>
+        <v>78.94677726491125</v>
       </c>
       <c r="K12" t="n">
         <v>147.7610602557326</v>
@@ -35506,13 +35506,13 @@
         <v>227.5461338388925</v>
       </c>
       <c r="P12" t="n">
-        <v>330.1126089828546</v>
+        <v>460.3275646690337</v>
       </c>
       <c r="Q12" t="n">
         <v>111.7654206068624</v>
       </c>
       <c r="R12" t="n">
-        <v>148.2737901678074</v>
+        <v>41.75308280931672</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>120.531470457306</v>
+        <v>41.82266576213338</v>
       </c>
       <c r="K13" t="n">
-        <v>331.4557754987164</v>
+        <v>81.67536225222955</v>
       </c>
       <c r="L13" t="n">
-        <v>207.7452412123893</v>
+        <v>489.6159253729301</v>
       </c>
       <c r="M13" t="n">
-        <v>528.8986378817275</v>
+        <v>528.8986378817276</v>
       </c>
       <c r="N13" t="n">
         <v>516.4954329032166</v>
       </c>
       <c r="O13" t="n">
-        <v>102.3714681923762</v>
+        <v>301.8925245774339</v>
       </c>
       <c r="P13" t="n">
-        <v>84.46761735786187</v>
+        <v>84.46761735786188</v>
       </c>
       <c r="Q13" t="n">
-        <v>202.2592660887009</v>
+        <v>49.35674348476253</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.3806553896963</v>
+        <v>41.38065538969632</v>
       </c>
       <c r="J14" t="n">
         <v>137.7375904507849</v>
       </c>
       <c r="K14" t="n">
-        <v>214.7612354351051</v>
+        <v>214.7612354351052</v>
       </c>
       <c r="L14" t="n">
-        <v>272.4874104203961</v>
+        <v>272.4874104203962</v>
       </c>
       <c r="M14" t="n">
         <v>308.3930130429517</v>
@@ -35661,7 +35661,7 @@
         <v>314.1404514408345</v>
       </c>
       <c r="O14" t="n">
-        <v>294.4450516820388</v>
+        <v>294.4450516820389</v>
       </c>
       <c r="P14" t="n">
         <v>245.6389963133066</v>
@@ -35725,7 +35725,7 @@
         <v>20.10863312123252</v>
       </c>
       <c r="J15" t="n">
-        <v>78.94677726491122</v>
+        <v>359.8218655395738</v>
       </c>
       <c r="K15" t="n">
         <v>147.7610602557326</v>
@@ -35740,10 +35740,10 @@
         <v>252.7242580723459</v>
       </c>
       <c r="O15" t="n">
-        <v>508.421222113555</v>
+        <v>227.5461338388925</v>
       </c>
       <c r="P15" t="n">
-        <v>179.4524763943715</v>
+        <v>179.4524763943716</v>
       </c>
       <c r="Q15" t="n">
         <v>111.7654206068624</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>120.531470457306</v>
+        <v>41.82266576213338</v>
       </c>
       <c r="K16" t="n">
-        <v>331.4557754987164</v>
+        <v>81.67536225222953</v>
       </c>
       <c r="L16" t="n">
-        <v>109.4251237656927</v>
+        <v>489.6159253729301</v>
       </c>
       <c r="M16" t="n">
-        <v>528.8986378817275</v>
+        <v>346.9021949706203</v>
       </c>
       <c r="N16" t="n">
         <v>516.4954329032166</v>
       </c>
       <c r="O16" t="n">
-        <v>102.3714681923762</v>
+        <v>483.8889674885411</v>
       </c>
       <c r="P16" t="n">
-        <v>182.7877348045588</v>
+        <v>84.46761735786187</v>
       </c>
       <c r="Q16" t="n">
-        <v>202.2592660887009</v>
+        <v>49.35674348476253</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.10863312123252</v>
+        <v>43.80288144892126</v>
       </c>
       <c r="J18" t="n">
-        <v>359.8218655395739</v>
+        <v>229.6069098533944</v>
       </c>
       <c r="K18" t="n">
         <v>147.7610602557326</v>
@@ -35986,7 +35986,7 @@
         <v>111.7654206068624</v>
       </c>
       <c r="R18" t="n">
-        <v>41.75308280931671</v>
+        <v>148.2737901678074</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,19 +36044,19 @@
         <v>41.82266576213337</v>
       </c>
       <c r="K19" t="n">
-        <v>81.67536225222952</v>
+        <v>331.4557754987164</v>
       </c>
       <c r="L19" t="n">
-        <v>307.6194824618225</v>
+        <v>489.6159253729301</v>
       </c>
       <c r="M19" t="n">
-        <v>528.8986378817275</v>
+        <v>528.8986378817276</v>
       </c>
       <c r="N19" t="n">
-        <v>516.4954329032166</v>
+        <v>466.2360760417873</v>
       </c>
       <c r="O19" t="n">
-        <v>483.8889674885411</v>
+        <v>102.3714681923762</v>
       </c>
       <c r="P19" t="n">
         <v>84.46761735786185</v>
@@ -36199,7 +36199,7 @@
         <v>43.80288144892126</v>
       </c>
       <c r="J21" t="n">
-        <v>336.1276172118851</v>
+        <v>229.6069098533944</v>
       </c>
       <c r="K21" t="n">
         <v>147.7610602557326</v>
@@ -36223,7 +36223,7 @@
         <v>111.7654206068624</v>
       </c>
       <c r="R21" t="n">
-        <v>41.75308280931671</v>
+        <v>148.2737901678074</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>120.531470457306</v>
+        <v>41.82266576213337</v>
       </c>
       <c r="K22" t="n">
-        <v>201.160916253187</v>
+        <v>81.67536225222952</v>
       </c>
       <c r="L22" t="n">
-        <v>109.4251237656927</v>
+        <v>489.6159253729301</v>
       </c>
       <c r="M22" t="n">
         <v>528.8986378817276</v>
@@ -36293,10 +36293,10 @@
         <v>516.4954329032166</v>
       </c>
       <c r="O22" t="n">
-        <v>483.8889674885411</v>
+        <v>102.3714681923762</v>
       </c>
       <c r="P22" t="n">
-        <v>84.46761735786185</v>
+        <v>283.9886737429197</v>
       </c>
       <c r="Q22" t="n">
         <v>49.35674348476252</v>
@@ -36357,16 +36357,16 @@
         <v>41.3806553896963</v>
       </c>
       <c r="J23" t="n">
-        <v>366.9755270741619</v>
+        <v>533.4236699534375</v>
       </c>
       <c r="K23" t="n">
-        <v>214.7612354351051</v>
+        <v>545.1301707000064</v>
       </c>
       <c r="L23" t="n">
         <v>272.4874104203961</v>
       </c>
       <c r="M23" t="n">
-        <v>308.3930130429516</v>
+        <v>308.3930130429517</v>
       </c>
       <c r="N23" t="n">
         <v>314.1404514408345</v>
@@ -36378,7 +36378,7 @@
         <v>245.6389963133066</v>
       </c>
       <c r="Q23" t="n">
-        <v>673.3745917390083</v>
+        <v>176.5575135948314</v>
       </c>
       <c r="R23" t="n">
         <v>242.4594143251281</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.10863312123251</v>
+        <v>43.80288144892126</v>
       </c>
       <c r="J24" t="n">
-        <v>78.9467772649112</v>
+        <v>78.94677726491122</v>
       </c>
       <c r="K24" t="n">
         <v>147.7610602557326</v>
       </c>
       <c r="L24" t="n">
-        <v>206.2864277730781</v>
+        <v>206.2864277730782</v>
       </c>
       <c r="M24" t="n">
-        <v>243.9037950241181</v>
+        <v>243.9037950241182</v>
       </c>
       <c r="N24" t="n">
-        <v>252.7242580723458</v>
+        <v>252.7242580723459</v>
       </c>
       <c r="O24" t="n">
         <v>227.5461338388924</v>
@@ -36457,10 +36457,10 @@
         <v>179.4524763943715</v>
       </c>
       <c r="Q24" t="n">
-        <v>392.6405088815254</v>
+        <v>262.4255531953457</v>
       </c>
       <c r="R24" t="n">
-        <v>41.75308280931669</v>
+        <v>148.2737901678074</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36527,10 +36527,10 @@
         <v>533.6208761861715</v>
       </c>
       <c r="N25" t="n">
-        <v>516.4954329032166</v>
+        <v>412.3010902575438</v>
       </c>
       <c r="O25" t="n">
-        <v>379.6946248428683</v>
+        <v>483.8889674885411</v>
       </c>
       <c r="P25" t="n">
         <v>400.382975512718</v>
@@ -36594,7 +36594,7 @@
         <v>41.3806553896963</v>
       </c>
       <c r="J26" t="n">
-        <v>137.7375904507849</v>
+        <v>533.4236699534375</v>
       </c>
       <c r="K26" t="n">
         <v>214.7612354351051</v>
@@ -36603,22 +36603,22 @@
         <v>272.4874104203961</v>
       </c>
       <c r="M26" t="n">
-        <v>308.3930130429516</v>
+        <v>308.3930130429517</v>
       </c>
       <c r="N26" t="n">
-        <v>737.3159752416757</v>
+        <v>314.1404514408345</v>
       </c>
       <c r="O26" t="n">
-        <v>751.100965151531</v>
+        <v>294.4450516820388</v>
       </c>
       <c r="P26" t="n">
         <v>245.6389963133066</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.5575135948314</v>
+        <v>506.926448859733</v>
       </c>
       <c r="R26" t="n">
-        <v>88.68299182234915</v>
+        <v>242.4594143251281</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.10863312123251</v>
+        <v>43.80288144892126</v>
       </c>
       <c r="J27" t="n">
-        <v>78.9467772649112</v>
+        <v>78.94677726491122</v>
       </c>
       <c r="K27" t="n">
         <v>147.7610602557326</v>
       </c>
       <c r="L27" t="n">
-        <v>206.2864277730781</v>
+        <v>206.2864277730782</v>
       </c>
       <c r="M27" t="n">
-        <v>243.9037950241181</v>
+        <v>243.9037950241182</v>
       </c>
       <c r="N27" t="n">
-        <v>252.7242580723458</v>
+        <v>252.7242580723459</v>
       </c>
       <c r="O27" t="n">
         <v>227.5461338388924</v>
       </c>
       <c r="P27" t="n">
-        <v>460.3275646690346</v>
+        <v>179.4524763943715</v>
       </c>
       <c r="Q27" t="n">
-        <v>111.7654206068624</v>
+        <v>262.4255531953457</v>
       </c>
       <c r="R27" t="n">
-        <v>41.75308280931669</v>
+        <v>148.2737901678074</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>41.82266576213337</v>
+        <v>120.531470457306</v>
       </c>
       <c r="K28" t="n">
         <v>331.4557754987164</v>
@@ -36764,7 +36764,7 @@
         <v>533.6208761861715</v>
       </c>
       <c r="N28" t="n">
-        <v>491.0098949527165</v>
+        <v>516.4954329032166</v>
       </c>
       <c r="O28" t="n">
         <v>483.8889674885411</v>
@@ -36773,7 +36773,7 @@
         <v>400.382975512718</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.2592660887009</v>
+        <v>98.06492344302818</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>41.3806553896963</v>
       </c>
       <c r="J29" t="n">
-        <v>137.7375904507849</v>
+        <v>520.751949576941</v>
       </c>
       <c r="K29" t="n">
-        <v>597.7755945612612</v>
+        <v>214.7612354351051</v>
       </c>
       <c r="L29" t="n">
         <v>272.4874104203961</v>
       </c>
       <c r="M29" t="n">
-        <v>308.3930130429516</v>
+        <v>308.3930130429517</v>
       </c>
       <c r="N29" t="n">
         <v>314.1404514408345</v>
@@ -36855,7 +36855,7 @@
         <v>673.3745917390083</v>
       </c>
       <c r="R29" t="n">
-        <v>88.68299182234915</v>
+        <v>88.68299182234918</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>43.80288144892124</v>
+        <v>43.80288144892126</v>
       </c>
       <c r="J30" t="n">
-        <v>229.6069098533949</v>
+        <v>229.6069098533944</v>
       </c>
       <c r="K30" t="n">
         <v>147.7610602557326</v>
       </c>
       <c r="L30" t="n">
-        <v>206.2864277730781</v>
+        <v>206.2864277730782</v>
       </c>
       <c r="M30" t="n">
-        <v>243.9037950241181</v>
+        <v>243.9037950241182</v>
       </c>
       <c r="N30" t="n">
-        <v>252.7242580723458</v>
+        <v>252.7242580723459</v>
       </c>
       <c r="O30" t="n">
         <v>227.5461338388924</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>41.82266576213337</v>
+        <v>120.531470457306</v>
       </c>
       <c r="K31" t="n">
         <v>331.4557754987164</v>
@@ -37001,7 +37001,7 @@
         <v>533.6208761861715</v>
       </c>
       <c r="N31" t="n">
-        <v>516.4954329032166</v>
+        <v>412.3010902575438</v>
       </c>
       <c r="O31" t="n">
         <v>483.8889674885411</v>
@@ -37010,7 +37010,7 @@
         <v>400.382975512718</v>
       </c>
       <c r="Q31" t="n">
-        <v>176.7737281382007</v>
+        <v>202.2592660887009</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,22 +37068,22 @@
         <v>41.3806553896963</v>
       </c>
       <c r="J32" t="n">
-        <v>137.7375904507849</v>
+        <v>533.4236699534375</v>
       </c>
       <c r="K32" t="n">
-        <v>214.7612354351051</v>
+        <v>698.9065932027854</v>
       </c>
       <c r="L32" t="n">
-        <v>541.8865117184582</v>
+        <v>272.4874104203961</v>
       </c>
       <c r="M32" t="n">
-        <v>308.3930130429516</v>
+        <v>308.3930130429517</v>
       </c>
       <c r="N32" t="n">
         <v>314.1404514408345</v>
       </c>
       <c r="O32" t="n">
-        <v>751.100965151531</v>
+        <v>294.4450516820388</v>
       </c>
       <c r="P32" t="n">
         <v>245.6389963133066</v>
@@ -37092,7 +37092,7 @@
         <v>176.5575135948314</v>
       </c>
       <c r="R32" t="n">
-        <v>242.4594143251281</v>
+        <v>88.68299182234918</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.10863312123251</v>
+        <v>43.80288144892126</v>
       </c>
       <c r="J33" t="n">
-        <v>78.9467772649112</v>
+        <v>229.6069098533944</v>
       </c>
       <c r="K33" t="n">
         <v>147.7610602557326</v>
       </c>
       <c r="L33" t="n">
-        <v>206.2864277730781</v>
+        <v>206.2864277730782</v>
       </c>
       <c r="M33" t="n">
-        <v>524.7788832987812</v>
+        <v>243.9037950241182</v>
       </c>
       <c r="N33" t="n">
-        <v>252.7242580723458</v>
+        <v>252.7242580723459</v>
       </c>
       <c r="O33" t="n">
         <v>227.5461338388924</v>
@@ -37171,7 +37171,7 @@
         <v>111.7654206068624</v>
       </c>
       <c r="R33" t="n">
-        <v>41.75308280931669</v>
+        <v>148.2737901678074</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,13 +37229,13 @@
         <v>41.82266576213337</v>
       </c>
       <c r="K34" t="n">
-        <v>331.4557754987164</v>
+        <v>305.970237548216</v>
       </c>
       <c r="L34" t="n">
         <v>489.6159253729301</v>
       </c>
       <c r="M34" t="n">
-        <v>508.1353382356715</v>
+        <v>533.6208761861715</v>
       </c>
       <c r="N34" t="n">
         <v>516.4954329032166</v>
@@ -37314,7 +37314,7 @@
         <v>272.4874104203961</v>
       </c>
       <c r="M35" t="n">
-        <v>308.3930130429522</v>
+        <v>308.3930130429517</v>
       </c>
       <c r="N35" t="n">
         <v>314.1404514408345</v>
@@ -37329,7 +37329,7 @@
         <v>176.5575135948314</v>
       </c>
       <c r="R35" t="n">
-        <v>88.68299182234915</v>
+        <v>88.68299182234918</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>43.80288144892124</v>
+        <v>43.80288144892126</v>
       </c>
       <c r="J36" t="n">
-        <v>78.9467772649112</v>
+        <v>229.6069098533944</v>
       </c>
       <c r="K36" t="n">
         <v>147.7610602557326</v>
       </c>
       <c r="L36" t="n">
-        <v>206.2864277730781</v>
+        <v>206.2864277730782</v>
       </c>
       <c r="M36" t="n">
-        <v>394.5639276126018</v>
+        <v>243.9037950241182</v>
       </c>
       <c r="N36" t="n">
-        <v>252.7242580723458</v>
+        <v>252.7242580723459</v>
       </c>
       <c r="O36" t="n">
         <v>227.5461338388924</v>
@@ -37466,19 +37466,19 @@
         <v>120.531470457306</v>
       </c>
       <c r="K37" t="n">
-        <v>331.4557754987164</v>
+        <v>81.67536225222952</v>
       </c>
       <c r="L37" t="n">
-        <v>109.4251237656927</v>
+        <v>489.6159253729301</v>
       </c>
       <c r="M37" t="n">
         <v>115.9082696580687</v>
       </c>
       <c r="N37" t="n">
-        <v>516.4954329032166</v>
+        <v>199.962672761801</v>
       </c>
       <c r="O37" t="n">
-        <v>297.766595707876</v>
+        <v>483.8889674885411</v>
       </c>
       <c r="P37" t="n">
         <v>400.382975512718</v>
@@ -37551,7 +37551,7 @@
         <v>272.4874104203961</v>
       </c>
       <c r="M38" t="n">
-        <v>308.3930130429516</v>
+        <v>308.3930130429517</v>
       </c>
       <c r="N38" t="n">
         <v>314.1404514408345</v>
@@ -37566,7 +37566,7 @@
         <v>176.5575135948314</v>
       </c>
       <c r="R38" t="n">
-        <v>88.68299182234915</v>
+        <v>88.68299182234918</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.10863312123251</v>
+        <v>20.10863312123252</v>
       </c>
       <c r="J39" t="n">
-        <v>359.8218655395743</v>
+        <v>359.8218655395738</v>
       </c>
       <c r="K39" t="n">
         <v>147.7610602557326</v>
       </c>
       <c r="L39" t="n">
-        <v>206.2864277730781</v>
+        <v>206.2864277730782</v>
       </c>
       <c r="M39" t="n">
-        <v>243.9037950241181</v>
+        <v>243.9037950241182</v>
       </c>
       <c r="N39" t="n">
-        <v>252.7242580723458</v>
+        <v>252.7242580723459</v>
       </c>
       <c r="O39" t="n">
         <v>227.5461338388924</v>
@@ -37645,7 +37645,7 @@
         <v>111.7654206068624</v>
       </c>
       <c r="R39" t="n">
-        <v>41.75308280931669</v>
+        <v>41.75308280931671</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>41.82266576213337</v>
+        <v>120.531470457306</v>
       </c>
       <c r="K40" t="n">
-        <v>81.6753622522295</v>
+        <v>331.4557754987164</v>
       </c>
       <c r="L40" t="n">
-        <v>307.6194824618228</v>
+        <v>489.6159253729301</v>
       </c>
       <c r="M40" t="n">
         <v>528.8986378817276</v>
       </c>
       <c r="N40" t="n">
-        <v>516.4954329032166</v>
+        <v>387.5272713466148</v>
       </c>
       <c r="O40" t="n">
-        <v>483.8889674885411</v>
+        <v>102.3714681923762</v>
       </c>
       <c r="P40" t="n">
-        <v>84.46761735786184</v>
+        <v>84.46761735786185</v>
       </c>
       <c r="Q40" t="n">
         <v>49.35674348476252</v>
@@ -37803,7 +37803,7 @@
         <v>176.5575135948314</v>
       </c>
       <c r="R41" t="n">
-        <v>88.68299182234966</v>
+        <v>88.68299182234921</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>43.80288144892126</v>
       </c>
       <c r="J42" t="n">
-        <v>78.94677726491122</v>
+        <v>229.6069098533944</v>
       </c>
       <c r="K42" t="n">
         <v>147.7610602557326</v>
@@ -37870,7 +37870,7 @@
         <v>243.9037950241182</v>
       </c>
       <c r="N42" t="n">
-        <v>509.9050980193198</v>
+        <v>252.7242580723459</v>
       </c>
       <c r="O42" t="n">
         <v>227.5461338388924</v>
@@ -37882,7 +37882,7 @@
         <v>111.7654206068624</v>
       </c>
       <c r="R42" t="n">
-        <v>41.75308280931671</v>
+        <v>148.2737901678074</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,19 +37940,19 @@
         <v>41.82266576213337</v>
       </c>
       <c r="K43" t="n">
-        <v>81.67536225222952</v>
+        <v>331.4557754987164</v>
       </c>
       <c r="L43" t="n">
-        <v>307.6194824618228</v>
+        <v>489.6159253729301</v>
       </c>
       <c r="M43" t="n">
-        <v>528.8986378817276</v>
+        <v>528.8986378817275</v>
       </c>
       <c r="N43" t="n">
-        <v>516.4954329032166</v>
+        <v>114.441975487176</v>
       </c>
       <c r="O43" t="n">
-        <v>483.8889674885411</v>
+        <v>454.1655687469871</v>
       </c>
       <c r="P43" t="n">
         <v>84.46761735786185</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.10863312123252</v>
+        <v>43.80288144892126</v>
       </c>
       <c r="J45" t="n">
-        <v>253.3011581810831</v>
+        <v>229.6069098533944</v>
       </c>
       <c r="K45" t="n">
         <v>147.7610602557326</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>120.531470457306</v>
+        <v>41.82266576213337</v>
       </c>
       <c r="K46" t="n">
         <v>81.67536225222952</v>
       </c>
       <c r="L46" t="n">
-        <v>325.9856878354526</v>
+        <v>489.6159253729301</v>
       </c>
       <c r="M46" t="n">
-        <v>115.9082696580687</v>
+        <v>528.8986378817276</v>
       </c>
       <c r="N46" t="n">
-        <v>516.4954329032166</v>
+        <v>334.4989899921093</v>
       </c>
       <c r="O46" t="n">
         <v>483.8889674885411</v>
       </c>
       <c r="P46" t="n">
-        <v>400.382975512718</v>
+        <v>84.46761735786185</v>
       </c>
       <c r="Q46" t="n">
         <v>49.35674348476252</v>
